--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="3360" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="15300" yWindow="3360" windowWidth="28400" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="153">
   <si>
     <t>NEW</t>
   </si>
@@ -465,13 +465,34 @@
   </si>
   <si>
     <t>10, 9, 10, 9, 9</t>
+  </si>
+  <si>
+    <t>BBCH 10.4</t>
+  </si>
+  <si>
+    <t>FRZ</t>
+  </si>
+  <si>
+    <t>9, /, 15, 15, 15</t>
+  </si>
+  <si>
+    <t>10, /, /</t>
+  </si>
+  <si>
+    <t>14, 10, 13, 9, 10</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>/, 9, 9, /, /, /</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +509,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,9 +541,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,6 +835,7 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -816,11 +848,11 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
@@ -842,10 +874,16 @@
       <c r="D2">
         <v>9</v>
       </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -876,6 +914,9 @@
       <c r="D7">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
@@ -883,6 +924,9 @@
       </c>
       <c r="D8">
         <v>9</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -936,13 +980,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -955,8 +999,11 @@
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
         <v>54</v>
@@ -964,26 +1011,29 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,31 +1044,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,14 +1081,20 @@
       <c r="D28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>56</v>
@@ -1046,14 +1102,20 @@
       <c r="D30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>58</v>
@@ -1061,8 +1123,11 @@
       <c r="D32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>59</v>
@@ -1070,8 +1135,11 @@
       <c r="D33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1152,11 @@
       <c r="D34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1093,20 +1164,23 @@
       <c r="D35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>58</v>
@@ -1114,8 +1188,11 @@
       <c r="D38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>59</v>
@@ -1123,14 +1200,17 @@
       <c r="D39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,38 +1220,47 @@
       <c r="C41" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="C44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="C45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1273,11 @@
       <c r="D47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="C48" t="s">
         <v>54</v>
@@ -1193,8 +1285,11 @@
       <c r="D48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" t="s">
         <v>56</v>
@@ -1202,32 +1297,41 @@
       <c r="D49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1240,32 +1344,35 @@
       <c r="D54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="C59" t="s">
         <v>59</v>
@@ -1273,8 +1380,11 @@
       <c r="D59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="C60" t="s">
         <v>55</v>
@@ -1282,8 +1392,11 @@
       <c r="D60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,41 +1409,55 @@
       <c r="D61">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42835</v>
+      </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
+      <c r="B63" s="4">
+        <v>0.40069444444444446</v>
+      </c>
       <c r="C63" t="s">
         <v>56</v>
       </c>
       <c r="D63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="C64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="C65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="C66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -1343,44 +1470,47 @@
       <c r="D67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="C69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="C70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="C71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="C72" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="C73" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,44 +1523,61 @@
       <c r="D74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="E74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42835</v>
+      </c>
       <c r="C75" t="s">
         <v>54</v>
       </c>
       <c r="D75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
+      <c r="B76" s="4">
+        <v>0.40069444444444446</v>
+      </c>
       <c r="C76" t="s">
         <v>56</v>
       </c>
       <c r="D76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="C77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="C78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="C79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -1443,20 +1590,26 @@
       <c r="D80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="C81" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="C82" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,14 +1622,17 @@
       <c r="D83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="C84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="C85" t="s">
         <v>56</v>
@@ -1484,32 +1640,35 @@
       <c r="D85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="C86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="C87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="C88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="C89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,32 +1681,35 @@
       <c r="D90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="C91" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="C92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="C93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="C94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -1560,8 +1722,11 @@
       <c r="D95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="C96" t="s">
         <v>54</v>
@@ -1986,19 +2151,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>28</v>
       </c>
@@ -2009,49 +2174,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>29</v>
       </c>
@@ -2064,26 +2229,43 @@
       <c r="D171">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
+      <c r="E171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="3">
+        <v>42835</v>
+      </c>
       <c r="C172" t="s">
         <v>54</v>
       </c>
       <c r="D172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
+      <c r="B173" s="4">
+        <v>0.40069444444444446</v>
+      </c>
       <c r="C173" t="s">
         <v>56</v>
       </c>
       <c r="D173">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
         <v>57</v>
@@ -2091,8 +2273,11 @@
       <c r="D174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>93</v>
@@ -2100,8 +2285,11 @@
       <c r="D175" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>30</v>
       </c>
@@ -2425,25 +2613,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="C225" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="C226" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="C227" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>36</v>
       </c>
@@ -2454,61 +2642,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="C229" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="C230" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="C231" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="C232" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="C233" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="C234" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="C235" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="C236" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="C237" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>37</v>
       </c>
@@ -2519,43 +2710,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="C239" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="C240" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="C241" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="C242" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="C243" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="C244" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="C245" t="s">
         <v>75</v>
@@ -2563,14 +2754,17 @@
       <c r="D245" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="C246" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="C247" t="s">
         <v>114</v>
@@ -2578,8 +2772,11 @@
       <c r="D247" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>38</v>
       </c>
@@ -2590,67 +2787,67 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="C249" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="C250" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="C251" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="C252" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="C253" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="C254" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="C255" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="C256" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="C257" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="C258" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="C259" t="s">
         <v>116</v>
@@ -2658,8 +2855,11 @@
       <c r="D259" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="C260" t="s">
         <v>117</v>
@@ -2667,8 +2867,11 @@
       <c r="D260" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>39</v>
       </c>
@@ -2679,31 +2882,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="C262" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="C263" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="C264" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="C265" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>40</v>
       </c>
@@ -2714,67 +2917,67 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="C267" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="C268" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="C269" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="C270" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="C271" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="C272" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="C273" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>41</v>
       </c>
@@ -2785,67 +2988,70 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="C283" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="C284" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="C285" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="C286" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="C287" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>42</v>
       </c>
@@ -3275,43 +3481,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="C353" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="C354" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="C355" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="C356" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="C357" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="C358" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>50</v>
       </c>
@@ -3322,43 +3528,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="C360" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="C361" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="C362" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="C363" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="C364" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="C365" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>51</v>
       </c>
@@ -3368,13 +3574,16 @@
       <c r="C366" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C367" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
         <v>56</v>
       </c>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="3360" windowWidth="28400" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="22800" yWindow="460" windowWidth="28400" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="meta" sheetId="2" r:id="rId1"/>
+    <sheet name="observations" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="202">
   <si>
     <t>NEW</t>
   </si>
@@ -486,13 +487,160 @@
   </si>
   <si>
     <t>/, 9, 9, /, /, /</t>
+  </si>
+  <si>
+    <t>Cells in green have been put in the growth chamber</t>
+  </si>
+  <si>
+    <t>cells that are blue were watered that day</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Growth Chamber</t>
+  </si>
+  <si>
+    <t>Growth Chamber: -3degC, light ~280 for 12 hrs</t>
+  </si>
+  <si>
+    <t>Put in for 18-30 hrs depending on time line - aim for 24 hrs</t>
+  </si>
+  <si>
+    <t>TABS</t>
+  </si>
+  <si>
+    <t>BBCH observations for all individuals through leaf out, once the individual is past leaf out then they were no longer monitored</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>observations tab:</t>
+  </si>
+  <si>
+    <t>ID number created for experiment</t>
+  </si>
+  <si>
+    <t>A or B - control or false spring</t>
+  </si>
+  <si>
+    <t>what color bud is it?</t>
+  </si>
+  <si>
+    <t>Blue, Red, Green, Black - are all marker colors</t>
+  </si>
+  <si>
+    <t>Yellow, White, Blue, Green, Red, Black and any variation are all tags</t>
+  </si>
+  <si>
+    <t>ex. Y-B,R,G,B means Yellow tag branch, Blue marker bud, Red marker bud, Green marker bud, and black marker bud</t>
+  </si>
+  <si>
+    <t>BU = blue</t>
+  </si>
+  <si>
+    <t>BA = black</t>
+  </si>
+  <si>
+    <t>ex. R/Y - red and yellow tagged bud</t>
+  </si>
+  <si>
+    <t>ex. 9,/,10,11 - corresponds to list under bud column</t>
+  </si>
+  <si>
+    <t>labeled as 9-15</t>
+  </si>
+  <si>
+    <t>can also have notes about discoloration or wilting after false spring treatment</t>
+  </si>
+  <si>
+    <t>Moved to GH 10 on Mar 24, 2017</t>
+  </si>
+  <si>
+    <t>GH:</t>
+  </si>
+  <si>
+    <t>humM</t>
+  </si>
+  <si>
+    <t>humL</t>
+  </si>
+  <si>
+    <t>humH</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>tempL</t>
+  </si>
+  <si>
+    <t>tempH</t>
+  </si>
+  <si>
+    <t>tempM</t>
+  </si>
+  <si>
+    <t>From GH 7: (actually more ambient conditions, similar to outdoors, these values are from one recording)</t>
+  </si>
+  <si>
+    <t>Marked all buds on April 4-5 and started monitoring budburst then. Go about 3-4 times a week to monitor</t>
+  </si>
+  <si>
+    <t>BBCH 13.04</t>
+  </si>
+  <si>
+    <t>9,/,15,15,15</t>
+  </si>
+  <si>
+    <t>9,/,/</t>
+  </si>
+  <si>
+    <t>9,9,10</t>
+  </si>
+  <si>
+    <t>/,/,9</t>
+  </si>
+  <si>
+    <t>11,10,10</t>
+  </si>
+  <si>
+    <t>15,12,14,11,11</t>
+  </si>
+  <si>
+    <t>9,/</t>
+  </si>
+  <si>
+    <t>9,/,/,/</t>
+  </si>
+  <si>
+    <t>9,9,9,/</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>9,9,/,/</t>
+  </si>
+  <si>
+    <t>9,9,/,/,/</t>
+  </si>
+  <si>
+    <t>9,/,/,/,/</t>
+  </si>
+  <si>
+    <t>BBCH 11.4 (post-frz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +668,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -541,12 +696,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +980,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="E367" sqref="E367"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H372"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,9 +1254,10 @@
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,13 +1274,16 @@
         <v>146</v>
       </c>
       <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -877,31 +1299,37 @@
       <c r="E2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -917,8 +1345,11 @@
       <c r="E7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -928,18 +1359,21 @@
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -950,43 +1384,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1436,11 @@
       <c r="E18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
         <v>54</v>
@@ -1014,26 +1451,29 @@
       <c r="E19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,31 +1484,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1524,11 @@
       <c r="E28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
         <v>54</v>
@@ -1093,8 +1536,11 @@
       <c r="E29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>56</v>
@@ -1105,8 +1551,11 @@
       <c r="E30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>57</v>
@@ -1114,8 +1563,11 @@
       <c r="E31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>58</v>
@@ -1126,8 +1578,11 @@
       <c r="E32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>59</v>
@@ -1138,8 +1593,11 @@
       <c r="E33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1155,8 +1613,11 @@
       <c r="E34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1167,20 +1628,26 @@
       <c r="E35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>58</v>
@@ -1191,8 +1658,11 @@
       <c r="E38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>59</v>
@@ -1203,14 +1673,17 @@
       <c r="E39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
         <v>54</v>
@@ -1233,7 +1706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="C43" t="s">
         <v>56</v>
@@ -1242,25 +1715,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="C44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="C45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,8 +1749,11 @@
       <c r="E47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="C48" t="s">
         <v>54</v>
@@ -1288,8 +1764,11 @@
       <c r="E48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" t="s">
         <v>56</v>
@@ -1300,8 +1779,11 @@
       <c r="E49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>57</v>
@@ -1309,8 +1791,11 @@
       <c r="E50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -1318,20 +1803,23 @@
       <c r="E51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,32 +1835,38 @@
       <c r="E54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="C59" t="s">
         <v>59</v>
@@ -1383,8 +1877,11 @@
       <c r="E59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="C60" t="s">
         <v>55</v>
@@ -1395,12 +1892,15 @@
       <c r="E60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
@@ -1412,21 +1912,27 @@
       <c r="E61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>42835</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="5">
         <v>0.40069444444444446</v>
       </c>
       <c r="C63" t="s">
@@ -1438,26 +1944,32 @@
       <c r="E63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="C64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="C65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="C66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -1473,48 +1985,54 @@
       <c r="E67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="C69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="C70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="C71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="C72" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="C73" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="G73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
@@ -1526,12 +2044,18 @@
       <c r="E74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>42835</v>
       </c>
       <c r="C75" t="s">
@@ -1543,10 +2067,16 @@
       <c r="E75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="4">
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5">
         <v>0.40069444444444446</v>
       </c>
       <c r="C76" t="s">
@@ -1558,26 +2088,32 @@
       <c r="E76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="C77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="C78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="C79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,8 +2129,11 @@
       <c r="E80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="C81" t="s">
         <v>59</v>
@@ -1602,14 +2141,20 @@
       <c r="E81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="C82" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -1625,14 +2170,17 @@
       <c r="E83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="C84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="C85" t="s">
         <v>56</v>
@@ -1643,32 +2191,35 @@
       <c r="E85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="C86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="C87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="C88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="C89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,32 +2235,35 @@
       <c r="E90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="C91" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="C92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="C93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="C94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -1725,8 +2279,11 @@
       <c r="E95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="C96" t="s">
         <v>54</v>
@@ -2151,19 +2708,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>28</v>
       </c>
@@ -2174,53 +2731,53 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C171" t="s">
@@ -2232,12 +2789,18 @@
       <c r="E171">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="F171">
+        <v>12</v>
+      </c>
+      <c r="G171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>42835</v>
       </c>
       <c r="C172" t="s">
@@ -2249,10 +2812,16 @@
       <c r="E172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="4">
+      <c r="F172">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="5">
         <v>0.40069444444444446</v>
       </c>
       <c r="C173" t="s">
@@ -2264,8 +2833,14 @@
       <c r="E173">
         <v>12</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>12</v>
+      </c>
+      <c r="G173">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
         <v>57</v>
@@ -2276,8 +2851,14 @@
       <c r="E174">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>93</v>
@@ -2288,8 +2869,14 @@
       <c r="E175" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>187</v>
+      </c>
+      <c r="G175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>30</v>
       </c>
@@ -2613,25 +3200,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="C225" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="C226" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="C227" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>36</v>
       </c>
@@ -2642,49 +3232,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="C229" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="C230" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="C231" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="C232" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="C233" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="C234" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="C235" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="C236" t="s">
         <v>70</v>
@@ -2693,13 +3283,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="C237" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>37</v>
       </c>
@@ -2710,43 +3300,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="C239" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="C240" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="C241" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="C242" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="C243" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="C244" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="C245" t="s">
         <v>75</v>
@@ -2757,14 +3353,17 @@
       <c r="E245" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="C246" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="C247" t="s">
         <v>114</v>
@@ -2775,8 +3374,11 @@
       <c r="E247" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>38</v>
       </c>
@@ -2787,67 +3389,82 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="C249" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="C250" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="C251" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="C252" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="C253" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G253" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="C254" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="C255" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G255" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="C256" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G256" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="C257" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="C258" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="C259" t="s">
         <v>116</v>
@@ -2858,8 +3475,11 @@
       <c r="E259" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="C260" t="s">
         <v>117</v>
@@ -2870,8 +3490,11 @@
       <c r="E260" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>39</v>
       </c>
@@ -2882,31 +3505,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="C262" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="C263" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="C264" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="C265" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>40</v>
       </c>
@@ -2917,67 +3540,67 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="C267" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="C268" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="C269" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="C270" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="C271" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="C272" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="C273" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>41</v>
       </c>
@@ -2988,61 +3611,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="C283" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="C284" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="C285" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="C286" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G286">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="C287" t="s">
         <v>83</v>
@@ -3050,8 +3676,11 @@
       <c r="E287" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G287" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>42</v>
       </c>
@@ -3061,74 +3690,92 @@
       <c r="C288" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G288">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="C289" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="C290" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="C291" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="C292" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="C293" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="C294" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G294" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="C295" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G295" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="C296" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="C297" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G297" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="C298" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G298" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="C299" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>43</v>
       </c>
@@ -3139,25 +3786,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="C301" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="C302" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="C303" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="C304" t="s">
         <v>123</v>
@@ -3375,67 +4022,73 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="C337" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="C338" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="C339" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="C340" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="C341" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="C342" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G342" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="C343" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="C344" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="C345" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="C346" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G346" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>48</v>
       </c>
@@ -3446,31 +4099,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="C348" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="C349" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="C350" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="C351" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>49</v>
       </c>
@@ -3481,43 +4134,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="C353" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="C354" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="C355" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="C356" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="C357" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="C358" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>50</v>
       </c>
@@ -3528,43 +4181,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="C360" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="C361" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="C362" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="C363" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="C364" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="C365" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>51</v>
       </c>
@@ -3577,13 +4230,16 @@
       <c r="E366">
         <v>9</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C367" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
         <v>56</v>
       </c>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="460" windowWidth="28400" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8400" yWindow="1900" windowWidth="28400" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="271">
   <si>
     <t>NEW</t>
   </si>
@@ -634,6 +634,213 @@
   </si>
   <si>
     <t>BBCH 11.4 (post-frz)</t>
+  </si>
+  <si>
+    <t>BBCH 17.04</t>
+  </si>
+  <si>
+    <t>9,9,9,9,9,9</t>
+  </si>
+  <si>
+    <t>9,9,9</t>
+  </si>
+  <si>
+    <t>10,9,/,/</t>
+  </si>
+  <si>
+    <t>10,10,9,9</t>
+  </si>
+  <si>
+    <t>14,10,9</t>
+  </si>
+  <si>
+    <t>11,11,9</t>
+  </si>
+  <si>
+    <t>UNFRZ</t>
+  </si>
+  <si>
+    <t>Looks great!</t>
+  </si>
+  <si>
+    <t>10,9,9,10,/,/</t>
+  </si>
+  <si>
+    <t>14,13,15</t>
+  </si>
+  <si>
+    <t>9,/,11</t>
+  </si>
+  <si>
+    <t>15,14,14</t>
+  </si>
+  <si>
+    <t>10,9,9,9,10,9</t>
+  </si>
+  <si>
+    <t>15,9,14,15,15,15,15</t>
+  </si>
+  <si>
+    <t>10,/</t>
+  </si>
+  <si>
+    <t>10,/,/,/</t>
+  </si>
+  <si>
+    <t>10,9,9</t>
+  </si>
+  <si>
+    <t>12,11,11,10</t>
+  </si>
+  <si>
+    <t>10,9,10,9</t>
+  </si>
+  <si>
+    <t>15,15</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>10,14,12,10</t>
+  </si>
+  <si>
+    <t>/,9,/</t>
+  </si>
+  <si>
+    <t>/,/,/,9,9</t>
+  </si>
+  <si>
+    <t>9,9,9,9</t>
+  </si>
+  <si>
+    <t>/,10</t>
+  </si>
+  <si>
+    <t>/,10,10,9</t>
+  </si>
+  <si>
+    <t>15,14,12,12</t>
+  </si>
+  <si>
+    <t>10,/,9,9</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>10,11,10,9</t>
+  </si>
+  <si>
+    <t>BBCH 24.04</t>
+  </si>
+  <si>
+    <t>9,/,9</t>
+  </si>
+  <si>
+    <t>13,14,9,10</t>
+  </si>
+  <si>
+    <t>15,14,13</t>
+  </si>
+  <si>
+    <t>15,15,13</t>
+  </si>
+  <si>
+    <t>15,14,15,14,/,/</t>
+  </si>
+  <si>
+    <t>15,15,15</t>
+  </si>
+  <si>
+    <t>13,/,14</t>
+  </si>
+  <si>
+    <t>14,14,14,15,13</t>
+  </si>
+  <si>
+    <t>15,15,15,15,15</t>
+  </si>
+  <si>
+    <t>9,10,/</t>
+  </si>
+  <si>
+    <t>13,12</t>
+  </si>
+  <si>
+    <t>13,15,14</t>
+  </si>
+  <si>
+    <t>15,15,15,14</t>
+  </si>
+  <si>
+    <t>14,15,15,15</t>
+  </si>
+  <si>
+    <t>10,10,11,9</t>
+  </si>
+  <si>
+    <t>15,15,14,11</t>
+  </si>
+  <si>
+    <t>10,9,9,9</t>
+  </si>
+  <si>
+    <t>9,9,9,/,/</t>
+  </si>
+  <si>
+    <t>10,/,9,/,/</t>
+  </si>
+  <si>
+    <t>10,9,12,12,12</t>
+  </si>
+  <si>
+    <t>13,12,12,9</t>
+  </si>
+  <si>
+    <t>/,11,13</t>
+  </si>
+  <si>
+    <t>/,15</t>
+  </si>
+  <si>
+    <t>/,9,11</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>12,11</t>
+  </si>
+  <si>
+    <t>/,/,10,9,9</t>
+  </si>
+  <si>
+    <t>/,/,/,/,9</t>
+  </si>
+  <si>
+    <t>9,15,/,14</t>
+  </si>
+  <si>
+    <t>11,15,15,15,15</t>
+  </si>
+  <si>
+    <t>11,10</t>
+  </si>
+  <si>
+    <t>14,/,13,11,11</t>
+  </si>
+  <si>
+    <t>14,13,12</t>
+  </si>
+  <si>
+    <t>13,13</t>
+  </si>
+  <si>
+    <t>9,10,10</t>
+  </si>
+  <si>
+    <t>15,15,15,15</t>
   </si>
 </sst>
 </file>
@@ -1242,22 +1449,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:K372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:B173"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="14" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,10 +1493,19 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1302,8 +1524,14 @@
       <c r="G2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1313,23 +1541,38 @@
       <c r="G3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1348,8 +1591,14 @@
       <c r="G7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1362,18 +1611,24 @@
       <c r="G8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1384,43 +1639,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1439,8 +1706,14 @@
       <c r="G18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
         <v>54</v>
@@ -1454,26 +1727,32 @@
       <c r="G19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,31 +1763,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1527,8 +1812,14 @@
       <c r="G28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
         <v>54</v>
@@ -1539,8 +1830,14 @@
       <c r="G29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>56</v>
@@ -1554,8 +1851,14 @@
       <c r="G30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>57</v>
@@ -1566,8 +1869,14 @@
       <c r="G31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>58</v>
@@ -1581,8 +1890,14 @@
       <c r="G32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>59</v>
@@ -1596,8 +1911,14 @@
       <c r="G33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1616,8 +1937,14 @@
       <c r="G34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>54</v>
@@ -1631,14 +1958,23 @@
       <c r="G35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
         <v>57</v>
@@ -1646,8 +1982,14 @@
       <c r="G37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>58</v>
@@ -1661,8 +2003,14 @@
       <c r="G38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>59</v>
@@ -1676,14 +2024,20 @@
       <c r="G39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1696,8 +2050,14 @@
       <c r="E41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
         <v>54</v>
@@ -1705,8 +2065,14 @@
       <c r="E42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="C43" t="s">
         <v>56</v>
@@ -1714,26 +2080,38 @@
       <c r="E43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="C44" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="C45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1752,8 +2130,14 @@
       <c r="G47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="C48" t="s">
         <v>54</v>
@@ -1767,8 +2151,14 @@
       <c r="G48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" t="s">
         <v>56</v>
@@ -1782,8 +2172,14 @@
       <c r="G49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" t="s">
         <v>57</v>
@@ -1794,8 +2190,14 @@
       <c r="G50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -1806,20 +2208,26 @@
       <c r="G51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="C53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1838,20 +2246,35 @@
       <c r="G54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="C55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" t="s">
         <v>57</v>
@@ -1859,14 +2282,20 @@
       <c r="G57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="C58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="C59" t="s">
         <v>59</v>
@@ -1880,8 +2309,14 @@
       <c r="G59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="C60" t="s">
         <v>55</v>
@@ -1895,8 +2330,14 @@
       <c r="G60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -1918,8 +2359,14 @@
       <c r="G61">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>147</v>
       </c>
@@ -1929,8 +2376,14 @@
       <c r="C62" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="5">
         <v>0.40069444444444446</v>
@@ -1950,26 +2403,45 @@
       <c r="G63">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="H63">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="4">
+        <v>42836</v>
+      </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="5">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="C65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>42849</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -1988,38 +2460,62 @@
       <c r="G67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="C69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="C70" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="C71" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="C72" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="C73" t="s">
         <v>55</v>
@@ -2027,8 +2523,14 @@
       <c r="G73">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>13</v>
+      </c>
+      <c r="I73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2050,8 +2552,14 @@
       <c r="G74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
@@ -2073,8 +2581,14 @@
       <c r="G75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="5">
         <v>0.40069444444444446</v>
@@ -2094,26 +2608,46 @@
       <c r="G76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="4">
+        <v>42836</v>
+      </c>
       <c r="C77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="5">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="C78" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>9</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="C79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2132,9 +2666,20 @@
       <c r="G80">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+      <c r="H80">
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>42842</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.3576388888888889</v>
+      </c>
       <c r="C81" t="s">
         <v>59</v>
       </c>
@@ -2144,17 +2689,31 @@
       <c r="G81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
+      <c r="H81">
+        <v>9</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>42843</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.3298611111111111</v>
+      </c>
       <c r="C82" t="s">
         <v>55</v>
       </c>
       <c r="G82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -2173,14 +2732,17 @@
       <c r="G83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="C84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="C85" t="s">
         <v>56</v>
@@ -2194,32 +2756,53 @@
       <c r="G85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="C86" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="C87" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="C88" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="C89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -2238,32 +2821,44 @@
       <c r="G90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="C91" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="C92" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="C93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="C94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,38 +2877,56 @@
       <c r="G95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="I95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="C96" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="C97" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="C98" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="C99" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="C100" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -2324,31 +2937,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="C102" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="C103" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="C104" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="C105" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
@@ -2359,37 +2972,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="C107" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="C108" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="C109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="C110" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="C111" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="C112" t="s">
         <v>62</v>
@@ -2602,19 +3215,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="C145" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="C146" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>26</v>
       </c>
@@ -2624,50 +3237,56 @@
       <c r="C147" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="C148" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="C149" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="C150" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="C153" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="C154" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>27</v>
       </c>
@@ -2678,49 +3297,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="C156" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="C157" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="C158" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="C159" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="C160" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>28</v>
       </c>
@@ -2731,49 +3350,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>29</v>
       </c>
@@ -2795,13 +3414,16 @@
       <c r="G171">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B172" s="4">
+      <c r="H171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
         <v>42835</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0.40069444444444446</v>
       </c>
       <c r="C172" t="s">
         <v>54</v>
@@ -2818,11 +3440,16 @@
       <c r="G172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
+      <c r="H172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>42836</v>
+      </c>
       <c r="B173" s="5">
-        <v>0.40069444444444446</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C173" t="s">
         <v>56</v>
@@ -2839,9 +3466,17 @@
       <c r="G173">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="1"/>
+      <c r="H173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>42842</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="C174" t="s">
         <v>57</v>
       </c>
@@ -2857,9 +3492,13 @@
       <c r="G174">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="1"/>
+      <c r="H174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
       <c r="C175" t="s">
         <v>93</v>
       </c>
@@ -2875,8 +3514,11 @@
       <c r="G175" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>30</v>
       </c>
@@ -3200,13 +3842,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="C225" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="C226" t="s">
         <v>106</v>
@@ -3214,14 +3856,26 @@
       <c r="G226" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226" t="s">
+        <v>188</v>
+      </c>
+      <c r="I226" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="C227" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227" t="s">
+        <v>203</v>
+      </c>
+      <c r="I227" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>36</v>
       </c>
@@ -3231,50 +3885,86 @@
       <c r="C228" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="C229" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="C230" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="C231" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="C232" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232" t="s">
+        <v>204</v>
+      </c>
+      <c r="I232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="C233" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233" t="s">
+        <v>198</v>
+      </c>
+      <c r="I233" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="C234" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234" t="s">
+        <v>205</v>
+      </c>
+      <c r="I234" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="C235" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235" t="s">
+        <v>206</v>
+      </c>
+      <c r="I235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="C236" t="s">
         <v>70</v>
@@ -3282,14 +3972,26 @@
       <c r="E236" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236" t="s">
+        <v>207</v>
+      </c>
+      <c r="I236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="C237" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237" t="s">
+        <v>208</v>
+      </c>
+      <c r="I237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>37</v>
       </c>
@@ -3299,32 +4001,60 @@
       <c r="C238" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
+      <c r="I238">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>42849</v>
+      </c>
+      <c r="B239" s="5">
+        <v>0.41944444444444445</v>
+      </c>
       <c r="C239" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
+      <c r="I239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>42850</v>
+      </c>
+      <c r="B240" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C240" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="C241" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="C242" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>211</v>
+      </c>
+      <c r="I242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="C243" t="s">
         <v>92</v>
@@ -3332,8 +4062,14 @@
       <c r="G243" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>212</v>
+      </c>
+      <c r="I243" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="C244" t="s">
         <v>112</v>
@@ -3341,8 +4077,14 @@
       <c r="G244" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>213</v>
+      </c>
+      <c r="I244" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="C245" t="s">
         <v>75</v>
@@ -3356,14 +4098,26 @@
       <c r="G245" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245" t="s">
+        <v>214</v>
+      </c>
+      <c r="I245" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="C246" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>215</v>
+      </c>
+      <c r="I246" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="C247" t="s">
         <v>114</v>
@@ -3377,8 +4131,14 @@
       <c r="G247" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247" t="s">
+        <v>216</v>
+      </c>
+      <c r="I247" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>38</v>
       </c>
@@ -3388,32 +4148,47 @@
       <c r="C248" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="C249" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="C250" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="C251" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="C252" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I252" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="C253" t="s">
         <v>98</v>
@@ -3421,14 +4196,20 @@
       <c r="G253" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253" t="s">
+        <v>217</v>
+      </c>
+      <c r="I253" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="C254" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="C255" t="s">
         <v>111</v>
@@ -3436,8 +4217,14 @@
       <c r="G255" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255" t="s">
+        <v>218</v>
+      </c>
+      <c r="I255" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="C256" t="s">
         <v>65</v>
@@ -3445,8 +4232,14 @@
       <c r="G256" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256" t="s">
+        <v>219</v>
+      </c>
+      <c r="I256" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="C257" t="s">
         <v>64</v>
@@ -3454,8 +4247,14 @@
       <c r="G257" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257" t="s">
+        <v>220</v>
+      </c>
+      <c r="I257" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="C258" t="s">
         <v>115</v>
@@ -3463,8 +4262,14 @@
       <c r="G258" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258" t="s">
+        <v>221</v>
+      </c>
+      <c r="I258" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="C259" t="s">
         <v>116</v>
@@ -3478,8 +4283,14 @@
       <c r="G259" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259" t="s">
+        <v>222</v>
+      </c>
+      <c r="I259" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="C260" t="s">
         <v>117</v>
@@ -3493,8 +4304,14 @@
       <c r="G260" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260" t="s">
+        <v>222</v>
+      </c>
+      <c r="I260" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>39</v>
       </c>
@@ -3505,31 +4322,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="C262" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="C263" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="C264" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="C265" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>40</v>
       </c>
@@ -3540,67 +4357,70 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="C267" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="C268" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="C269" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="C270" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="C271" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="C272" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="C273" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I276" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>41</v>
       </c>
@@ -3610,56 +4430,71 @@
       <c r="C277" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="C283" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="C284" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284" t="s">
+        <v>194</v>
+      </c>
+      <c r="I284" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="C285" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I285" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="C286" t="s">
         <v>72</v>
@@ -3667,8 +4502,14 @@
       <c r="G286">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286" t="s">
+        <v>223</v>
+      </c>
+      <c r="I286" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="C287" t="s">
         <v>83</v>
@@ -3679,8 +4520,14 @@
       <c r="G287" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287" t="s">
+        <v>224</v>
+      </c>
+      <c r="I287" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>42</v>
       </c>
@@ -3693,32 +4540,44 @@
       <c r="G288">
         <v>9</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288">
+        <v>10</v>
+      </c>
+      <c r="I288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="C289" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="C290" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="C291" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="C292" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292" t="s">
+        <v>225</v>
+      </c>
+      <c r="I292" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="C293" t="s">
         <v>104</v>
@@ -3726,8 +4585,14 @@
       <c r="G293" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293" t="s">
+        <v>218</v>
+      </c>
+      <c r="I293" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="C294" t="s">
         <v>85</v>
@@ -3735,8 +4600,14 @@
       <c r="G294" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294" t="s">
+        <v>218</v>
+      </c>
+      <c r="I294" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="C295" t="s">
         <v>111</v>
@@ -3744,14 +4615,26 @@
       <c r="G295" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>218</v>
+      </c>
+      <c r="I295" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="C296" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296" t="s">
+        <v>194</v>
+      </c>
+      <c r="I296" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="C297" t="s">
         <v>96</v>
@@ -3759,8 +4642,14 @@
       <c r="G297" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297" t="s">
+        <v>218</v>
+      </c>
+      <c r="I297" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="C298" t="s">
         <v>119</v>
@@ -3768,14 +4657,26 @@
       <c r="G298" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298" t="s">
+        <v>218</v>
+      </c>
+      <c r="I298" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="C299" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299">
+        <v>9</v>
+      </c>
+      <c r="I299" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>43</v>
       </c>
@@ -3785,50 +4686,99 @@
       <c r="C300" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="1"/>
+      <c r="H300">
+        <v>9</v>
+      </c>
+      <c r="I300">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="4">
+        <v>42849</v>
+      </c>
+      <c r="B301" s="5">
+        <v>0.41944444444444445</v>
+      </c>
       <c r="C301" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="1"/>
+      <c r="H301">
+        <v>9</v>
+      </c>
+      <c r="I301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="4">
+        <v>42850</v>
+      </c>
+      <c r="B302" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C302" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I302">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="C303" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="C304" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H304" t="s">
+        <v>226</v>
+      </c>
+      <c r="I304" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="C305" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H305" t="s">
+        <v>227</v>
+      </c>
+      <c r="I305" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="C306" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H306" t="s">
+        <v>228</v>
+      </c>
+      <c r="I306" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="C307" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I307" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>44</v>
       </c>
@@ -3838,56 +4788,93 @@
       <c r="C308" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="1"/>
+      <c r="I308">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" s="4">
+        <v>42849</v>
+      </c>
+      <c r="B309" s="5">
+        <v>0.41944444444444445</v>
+      </c>
       <c r="C309" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="1"/>
+      <c r="I309">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" s="4">
+        <v>42850</v>
+      </c>
+      <c r="B310" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C310" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I310">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="C311" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="C312" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I312" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="C313" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I313" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="C314" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="C315" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I315" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="C316" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I316" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>45</v>
       </c>
@@ -3897,50 +4884,59 @@
       <c r="C317" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H317">
+        <v>9</v>
+      </c>
+      <c r="I317">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="C318" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="C319" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="C320" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="C321" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="C322" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="C323" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="C324" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I324" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>46</v>
       </c>
@@ -3951,49 +4947,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="C326" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="C327" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="C328" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="C329" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I329" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="C330" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="C331" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H331" t="s">
+        <v>229</v>
+      </c>
+      <c r="I331" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="C332" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H332" t="s">
+        <v>230</v>
+      </c>
+      <c r="I332" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>47</v>
       </c>
@@ -4004,55 +5015,70 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="C334" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="C335" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="C336" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="C337" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I337" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="C338" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="C339" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H339" t="s">
+        <v>204</v>
+      </c>
+      <c r="I339" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="C340" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I340" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="C341" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I341" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="C342" t="s">
         <v>133</v>
@@ -4060,26 +5086,47 @@
       <c r="G342" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H342" t="s">
+        <v>231</v>
+      </c>
+      <c r="I342" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="C343" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H343" t="s">
+        <v>204</v>
+      </c>
+      <c r="I343" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="C344" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H344" t="s">
+        <v>232</v>
+      </c>
+      <c r="I344" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="C345" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I345" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="C346" t="s">
         <v>122</v>
@@ -4087,8 +5134,14 @@
       <c r="G346" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H346" t="s">
+        <v>233</v>
+      </c>
+      <c r="I346" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>48</v>
       </c>
@@ -4099,31 +5152,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="C348" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="C349" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="C350" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="C351" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>49</v>
       </c>
@@ -4134,43 +5187,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="C353" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="C354" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="C355" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="C356" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="C357" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="C358" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>50</v>
       </c>
@@ -4181,43 +5234,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="C360" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="C361" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="C362" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="C363" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="C364" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="C365" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>51</v>
       </c>
@@ -4233,33 +5286,45 @@
       <c r="G366">
         <v>9</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H366">
+        <v>9</v>
+      </c>
+      <c r="I366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C367" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="H371" t="s">
+        <v>194</v>
+      </c>
+      <c r="I371" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="372" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
         <v>140</v>
       </c>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="271">
   <si>
     <t>NEW</t>
   </si>
@@ -1449,13 +1449,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K372"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,11 +1469,11 @@
     <col min="4" max="4" width="12.83203125" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="14" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1507,11 @@
       <c r="K1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1618,17 +1624,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1639,25 +1645,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
@@ -1669,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -3996,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
         <v>55</v>
@@ -4316,7 +4322,7 @@
         <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
         <v>55</v>
@@ -4425,7 +4431,7 @@
         <v>41</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
         <v>55</v>
@@ -4681,7 +4687,7 @@
         <v>43</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
         <v>55</v>
@@ -4879,7 +4885,7 @@
         <v>45</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C317" t="s">
         <v>55</v>
@@ -4941,7 +4947,7 @@
         <v>46</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C325" t="s">
         <v>55</v>
@@ -5146,7 +5152,7 @@
         <v>48</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C347" t="s">
         <v>55</v>
@@ -5228,7 +5234,7 @@
         <v>50</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C359" t="s">
         <v>55</v>
@@ -5333,6 +5339,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup fitToHeight="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="240">
   <si>
     <t>NEW</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>BU/G</t>
+  </si>
+  <si>
+    <t>BBCH 14.07</t>
   </si>
 </sst>
 </file>
@@ -1399,13 +1402,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD715"/>
+  <dimension ref="A1:AE715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D666" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S716" sqref="S716"/>
+      <selection pane="bottomRight" activeCell="AE222" sqref="AE222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1423,7 @@
     <col min="13" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1514,11 @@
       <c r="AD1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
@@ -2201,7 +2207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
@@ -2261,7 +2267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
@@ -2318,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
@@ -2384,7 +2390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -7253,7 +7259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="C145" t="s">
         <v>164</v>
@@ -7271,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="C146" t="s">
         <v>61</v>
@@ -7292,7 +7298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="C147" t="s">
         <v>183</v>
@@ -7319,7 +7325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="C148" t="s">
         <v>170</v>
@@ -7337,7 +7343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="C149" t="s">
         <v>171</v>
@@ -7355,7 +7361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="C150" t="s">
         <v>184</v>
@@ -7373,13 +7379,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" t="s">
         <v>174</v>
@@ -7388,7 +7394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="C153" t="s">
         <v>172</v>
@@ -7397,7 +7403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="C154" t="s">
         <v>179</v>
@@ -7409,7 +7415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="C155" t="s">
         <v>62</v>
@@ -7421,7 +7427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="C156" t="s">
         <v>185</v>
@@ -7430,7 +7436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="C157" t="s">
         <v>186</v>
@@ -7439,7 +7445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="C158" t="s">
         <v>187</v>
@@ -7448,7 +7454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="C159" t="s">
         <v>188</v>
@@ -7457,7 +7463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -7482,8 +7488,11 @@
       <c r="AD160">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>54</v>
@@ -7501,7 +7510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>56</v>
@@ -7521,8 +7530,11 @@
       <c r="AD162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="C163" t="s">
         <v>57</v>
@@ -7540,19 +7552,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>161</v>
@@ -7560,14 +7572,17 @@
       <c r="AD166">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>183</v>
@@ -7590,8 +7605,11 @@
       <c r="AD168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>170</v>
@@ -7599,8 +7617,11 @@
       <c r="AD169">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>171</v>
@@ -7611,8 +7632,11 @@
       <c r="AD170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="C171" t="s">
         <v>64</v>
@@ -7638,8 +7662,11 @@
       <c r="AD171">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="C172" t="s">
         <v>184</v>
@@ -7647,8 +7674,11 @@
       <c r="AD172">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="C173" t="s">
         <v>173</v>
@@ -7656,8 +7686,11 @@
       <c r="AD173">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
         <v>179</v>
@@ -7683,8 +7716,11 @@
       <c r="AD174">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>180</v>
@@ -7698,8 +7734,11 @@
       <c r="AD175">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="C176" t="s">
         <v>181</v>
@@ -7713,8 +7752,11 @@
       <c r="AD176">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="C177" t="s">
         <v>182</v>
@@ -7728,8 +7770,11 @@
       <c r="AD177">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -7752,127 +7797,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="C179" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="C180" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="C181" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="C182" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="C183" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="C184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="C185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="C186" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="C187" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="C188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="C189" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="C190" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="C191" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="C193" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="C194" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="C195" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="C196" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="C197" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="C198" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -7915,8 +7960,11 @@
       <c r="AD199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="C200" t="s">
         <v>54</v>
@@ -7942,8 +7990,11 @@
       <c r="AD200">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="C201" t="s">
         <v>56</v>
@@ -7969,8 +8020,11 @@
       <c r="AD201">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="C202" t="s">
         <v>57</v>
@@ -7996,8 +8050,11 @@
       <c r="AD202">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="C203" t="s">
         <v>58</v>
@@ -8020,8 +8077,11 @@
       <c r="AD203">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="C204" t="s">
         <v>59</v>
@@ -8039,7 +8099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="C205" t="s">
         <v>55</v>
@@ -8056,8 +8116,11 @@
       <c r="S205">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE205">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="C206" t="s">
         <v>54</v>
@@ -8077,14 +8140,17 @@
       <c r="AD206">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="C207" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="C208" t="s">
         <v>176</v>
@@ -8101,8 +8167,11 @@
       <c r="S208">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="C209" t="s">
         <v>177</v>
@@ -8119,8 +8188,11 @@
       <c r="S209">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE209">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="C210" t="s">
         <v>178</v>
@@ -8131,20 +8203,26 @@
       <c r="AD210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="C211" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="C212" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="C213" t="s">
         <v>183</v>
@@ -8155,8 +8233,11 @@
       <c r="AD213">
         <v>15</v>
       </c>
-    </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="C214" t="s">
         <v>170</v>
@@ -8167,14 +8248,17 @@
       <c r="AD214">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="C215" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="C216" t="s">
         <v>169</v>
@@ -8182,20 +8266,23 @@
       <c r="AD216">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="C217" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="C218" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="C219" t="s">
         <v>195</v>
@@ -8203,20 +8290,26 @@
       <c r="AD219">
         <v>13</v>
       </c>
-    </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="C220" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="C221" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -8257,7 +8350,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="C223" t="s">
         <v>54</v>
@@ -8281,7 +8374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="C224" t="s">
         <v>56</v>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="241">
   <si>
     <t>NEW</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>BBCH 14.07</t>
+  </si>
+  <si>
+    <t>BBCH 17.07</t>
   </si>
 </sst>
 </file>
@@ -1402,13 +1405,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE715"/>
+  <dimension ref="A1:AF715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE222" sqref="AE222"/>
+      <selection pane="bottomRight" activeCell="AF221" sqref="AF221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1426,7 @@
     <col min="13" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1517,8 +1520,11 @@
       <c r="AE1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
@@ -2207,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
@@ -2267,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
@@ -2324,7 +2330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
@@ -2390,7 +2396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -7259,7 +7265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="C145" t="s">
         <v>164</v>
@@ -7277,7 +7283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="C146" t="s">
         <v>61</v>
@@ -7298,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="C147" t="s">
         <v>183</v>
@@ -7325,7 +7331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="C148" t="s">
         <v>170</v>
@@ -7343,7 +7349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="C149" t="s">
         <v>171</v>
@@ -7361,7 +7367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="C150" t="s">
         <v>184</v>
@@ -7379,13 +7385,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" t="s">
         <v>174</v>
@@ -7394,7 +7400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="C153" t="s">
         <v>172</v>
@@ -7403,7 +7409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="C154" t="s">
         <v>179</v>
@@ -7415,7 +7421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="C155" t="s">
         <v>62</v>
@@ -7427,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="C156" t="s">
         <v>185</v>
@@ -7436,7 +7442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="C157" t="s">
         <v>186</v>
@@ -7445,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="C158" t="s">
         <v>187</v>
@@ -7454,7 +7460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="C159" t="s">
         <v>188</v>
@@ -7463,7 +7469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -7491,8 +7497,11 @@
       <c r="AE160">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>54</v>
@@ -7509,8 +7518,11 @@
       <c r="S161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>56</v>
@@ -7533,8 +7545,11 @@
       <c r="AE162">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="C163" t="s">
         <v>57</v>
@@ -7551,20 +7566,23 @@
       <c r="S163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>161</v>
@@ -7575,14 +7593,17 @@
       <c r="AE166">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>183</v>
@@ -7608,8 +7629,11 @@
       <c r="AE168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>170</v>
@@ -7620,8 +7644,11 @@
       <c r="AE169">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>171</v>
@@ -7635,8 +7662,11 @@
       <c r="AE170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="C171" t="s">
         <v>64</v>
@@ -7665,8 +7695,11 @@
       <c r="AE171">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="C172" t="s">
         <v>184</v>
@@ -7677,8 +7710,11 @@
       <c r="AE172">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="C173" t="s">
         <v>173</v>
@@ -7689,8 +7725,11 @@
       <c r="AE173">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
         <v>179</v>
@@ -7719,8 +7758,11 @@
       <c r="AE174">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>180</v>
@@ -7737,8 +7779,11 @@
       <c r="AE175">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="C176" t="s">
         <v>181</v>
@@ -7755,8 +7800,11 @@
       <c r="AE176">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="C177" t="s">
         <v>182</v>
@@ -7773,8 +7821,11 @@
       <c r="AE177">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -7797,127 +7848,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="C179" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="C180" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="C181" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="C182" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="C183" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="C184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="C185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="C186" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="C187" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="C188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="C189" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="C190" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="C191" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="C193" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="C194" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="C195" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="C196" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="C197" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="C198" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -7963,8 +8014,11 @@
       <c r="AE199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="C200" t="s">
         <v>54</v>
@@ -7993,8 +8047,11 @@
       <c r="AE200">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="C201" t="s">
         <v>56</v>
@@ -8023,8 +8080,11 @@
       <c r="AE201">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="C202" t="s">
         <v>57</v>
@@ -8053,8 +8113,11 @@
       <c r="AE202">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="C203" t="s">
         <v>58</v>
@@ -8080,8 +8143,11 @@
       <c r="AE203">
         <v>15</v>
       </c>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="C204" t="s">
         <v>59</v>
@@ -8099,7 +8165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="C205" t="s">
         <v>55</v>
@@ -8119,8 +8185,11 @@
       <c r="AE205">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="C206" t="s">
         <v>54</v>
@@ -8143,14 +8212,17 @@
       <c r="AE206">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="C207" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="C208" t="s">
         <v>176</v>
@@ -8170,8 +8242,11 @@
       <c r="AE208">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="C209" t="s">
         <v>177</v>
@@ -8191,8 +8266,11 @@
       <c r="AE209">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="C210" t="s">
         <v>178</v>
@@ -8206,8 +8284,11 @@
       <c r="AE210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="C211" t="s">
         <v>191</v>
@@ -8215,14 +8296,17 @@
       <c r="AE211">
         <v>13</v>
       </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="C212" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="C213" t="s">
         <v>183</v>
@@ -8236,8 +8320,11 @@
       <c r="AE213">
         <v>15</v>
       </c>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="C214" t="s">
         <v>170</v>
@@ -8251,14 +8338,17 @@
       <c r="AE214">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="C215" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="C216" t="s">
         <v>169</v>
@@ -8269,20 +8359,29 @@
       <c r="AE216">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="C217" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="C218" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="C219" t="s">
         <v>195</v>
@@ -8293,8 +8392,11 @@
       <c r="AE219">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="C220" t="s">
         <v>196</v>
@@ -8302,14 +8404,17 @@
       <c r="AE220">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="C221" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -8350,7 +8455,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="C223" t="s">
         <v>54</v>
@@ -8374,7 +8479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="C224" t="s">
         <v>56</v>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="242">
   <si>
     <t>NEW</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>BBCH 17.07</t>
+  </si>
+  <si>
+    <t>BBCH 26-Jul</t>
   </si>
 </sst>
 </file>
@@ -1405,13 +1408,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF715"/>
+  <dimension ref="A1:AG715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF221" sqref="AF221"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1429,7 @@
     <col min="13" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,8 +1526,11 @@
       <c r="AF1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
@@ -2213,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
@@ -2273,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
@@ -2330,7 +2336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
@@ -2396,7 +2402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -7265,7 +7271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="C145" t="s">
         <v>164</v>
@@ -7283,7 +7289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="C146" t="s">
         <v>61</v>
@@ -7304,7 +7310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="C147" t="s">
         <v>183</v>
@@ -7331,7 +7337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="C148" t="s">
         <v>170</v>
@@ -7349,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="C149" t="s">
         <v>171</v>
@@ -7367,7 +7373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="C150" t="s">
         <v>184</v>
@@ -7385,13 +7391,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" t="s">
         <v>174</v>
@@ -7400,7 +7406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="C153" t="s">
         <v>172</v>
@@ -7409,7 +7415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="C154" t="s">
         <v>179</v>
@@ -7421,7 +7427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="C155" t="s">
         <v>62</v>
@@ -7433,7 +7439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="C156" t="s">
         <v>185</v>
@@ -7442,7 +7448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="C157" t="s">
         <v>186</v>
@@ -7451,7 +7457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="C158" t="s">
         <v>187</v>
@@ -7460,7 +7466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="C159" t="s">
         <v>188</v>
@@ -7469,7 +7475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -7500,8 +7506,11 @@
       <c r="AF160">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>54</v>
@@ -7521,8 +7530,11 @@
       <c r="AF161">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>56</v>
@@ -7548,8 +7560,11 @@
       <c r="AF162">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="C163" t="s">
         <v>57</v>
@@ -7569,20 +7584,23 @@
       <c r="AF163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
         <v>161</v>
@@ -7596,14 +7614,17 @@
       <c r="AF166">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
         <v>183</v>
@@ -7632,8 +7653,11 @@
       <c r="AF168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
         <v>170</v>
@@ -7647,8 +7671,11 @@
       <c r="AF169">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
         <v>171</v>
@@ -7665,8 +7692,11 @@
       <c r="AF170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="C171" t="s">
         <v>64</v>
@@ -7698,8 +7728,11 @@
       <c r="AF171">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="C172" t="s">
         <v>184</v>
@@ -7713,8 +7746,11 @@
       <c r="AF172">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="C173" t="s">
         <v>173</v>
@@ -7728,8 +7764,11 @@
       <c r="AF173">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
         <v>179</v>
@@ -7761,8 +7800,11 @@
       <c r="AF174">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>180</v>
@@ -7782,8 +7824,11 @@
       <c r="AF175">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="C176" t="s">
         <v>181</v>
@@ -7803,8 +7848,11 @@
       <c r="AF176">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="C177" t="s">
         <v>182</v>
@@ -7824,8 +7872,11 @@
       <c r="AF177">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -7847,128 +7898,152 @@
       <c r="S178">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="C179" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="C180" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="C181" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="C182" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="C183" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="C184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="C185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="C186" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="C187" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="C188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="C189" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="C190" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="C191" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="C192" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="C193" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="C194" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="C195" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="C196" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="C197" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="C198" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -8017,8 +8092,11 @@
       <c r="AF199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="C200" t="s">
         <v>54</v>
@@ -8050,8 +8128,11 @@
       <c r="AF200">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="C201" t="s">
         <v>56</v>
@@ -8083,8 +8164,11 @@
       <c r="AF201">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="C202" t="s">
         <v>57</v>
@@ -8116,8 +8200,11 @@
       <c r="AF202">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="C203" t="s">
         <v>58</v>
@@ -8146,8 +8233,11 @@
       <c r="AF203">
         <v>15</v>
       </c>
-    </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="C204" t="s">
         <v>59</v>
@@ -8164,8 +8254,11 @@
       <c r="S204">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="C205" t="s">
         <v>55</v>
@@ -8188,8 +8281,11 @@
       <c r="AF205">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="C206" t="s">
         <v>54</v>
@@ -8215,14 +8311,17 @@
       <c r="AF206">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="C207" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="C208" t="s">
         <v>176</v>
@@ -8245,8 +8344,11 @@
       <c r="AF208">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="C209" t="s">
         <v>177</v>
@@ -8269,8 +8371,11 @@
       <c r="AF209">
         <v>15</v>
       </c>
-    </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="C210" t="s">
         <v>178</v>
@@ -8287,8 +8392,11 @@
       <c r="AF210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="C211" t="s">
         <v>191</v>
@@ -8299,14 +8407,17 @@
       <c r="AF211">
         <v>15</v>
       </c>
-    </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="C212" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="C213" t="s">
         <v>183</v>
@@ -8323,8 +8434,11 @@
       <c r="AF213">
         <v>15</v>
       </c>
-    </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="C214" t="s">
         <v>170</v>
@@ -8341,14 +8455,17 @@
       <c r="AF214">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="C215" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="C216" t="s">
         <v>169</v>
@@ -8362,17 +8479,23 @@
       <c r="AF216">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="C217" t="s">
         <v>193</v>
       </c>
       <c r="AF217">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AG217">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="C218" t="s">
         <v>194</v>
@@ -8380,8 +8503,11 @@
       <c r="AF218">
         <v>13</v>
       </c>
-    </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="C219" t="s">
         <v>195</v>
@@ -8395,8 +8521,11 @@
       <c r="AF219">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="C220" t="s">
         <v>196</v>
@@ -8407,14 +8536,17 @@
       <c r="AF220">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="C221" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -8455,7 +8587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="C223" t="s">
         <v>54</v>
@@ -8479,7 +8611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="C224" t="s">
         <v>56</v>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="212">
   <si>
     <t>NEW</t>
   </si>
@@ -246,12 +246,6 @@
     <t>Y - B</t>
   </si>
   <si>
-    <t>BBCH 07.4</t>
-  </si>
-  <si>
-    <t>BBCH 10.4</t>
-  </si>
-  <si>
     <t>FRZ</t>
   </si>
   <si>
@@ -354,15 +348,6 @@
     <t>Marked all buds on April 4-5 and started monitoring budburst then. Go about 3-4 times a week to monitor</t>
   </si>
   <si>
-    <t>BBCH 13.04</t>
-  </si>
-  <si>
-    <t>BBCH 11.4 (post-frz)</t>
-  </si>
-  <si>
-    <t>BBCH 17.04</t>
-  </si>
-  <si>
     <t>UNFRZ</t>
   </si>
   <si>
@@ -375,30 +360,15 @@
     <t>9,9</t>
   </si>
   <si>
-    <t>BBCH 24.04</t>
-  </si>
-  <si>
     <t>DONE!</t>
   </si>
   <si>
-    <t>BBCH 28.04</t>
-  </si>
-  <si>
-    <t>BBCH 01.05</t>
-  </si>
-  <si>
     <t>DONE!!</t>
   </si>
   <si>
     <t>12,14,9</t>
   </si>
   <si>
-    <t>BBCH 03.05</t>
-  </si>
-  <si>
-    <t>BBCH 06.05</t>
-  </si>
-  <si>
     <t>FRZ: Apr-28</t>
   </si>
   <si>
@@ -420,24 +390,12 @@
     <t>FRZ: May 6</t>
   </si>
   <si>
-    <t>BBCH 10.05</t>
-  </si>
-  <si>
-    <t>BBCH 13.05</t>
-  </si>
-  <si>
     <t>15,15,9</t>
   </si>
   <si>
     <t>stem snapped</t>
   </si>
   <si>
-    <t>BBCH 15.05</t>
-  </si>
-  <si>
-    <t>BBCH 19.05</t>
-  </si>
-  <si>
     <t>FRZ: May 30</t>
   </si>
   <si>
@@ -447,54 +405,21 @@
     <t>x</t>
   </si>
   <si>
-    <t>BBCH 23.05</t>
-  </si>
-  <si>
-    <t>BBCH 25.05</t>
-  </si>
-  <si>
-    <t>BBCH 30.05</t>
-  </si>
-  <si>
     <t>10,11,9</t>
   </si>
   <si>
-    <t>BBCH 01.06</t>
-  </si>
-  <si>
     <t>10,12,9</t>
   </si>
   <si>
-    <t>BBCH 05.06</t>
-  </si>
-  <si>
     <t>FRZ: June 8</t>
   </si>
   <si>
-    <t>BBCH 08.06</t>
-  </si>
-  <si>
-    <t>BBCH 12.06</t>
-  </si>
-  <si>
-    <t>BBCH 15.06</t>
-  </si>
-  <si>
-    <t>BBCH 20.06</t>
-  </si>
-  <si>
     <t>Green/Red</t>
   </si>
   <si>
-    <t>BBCH 25.06</t>
-  </si>
-  <si>
     <t>dead</t>
   </si>
   <si>
-    <t>BBCH 03.07</t>
-  </si>
-  <si>
     <t>FRZ: June 20</t>
   </si>
   <si>
@@ -504,12 +429,6 @@
     <t>missed</t>
   </si>
   <si>
-    <t>BBCH 07.07</t>
-  </si>
-  <si>
-    <t>BBCH 11.07</t>
-  </si>
-  <si>
     <t>FRZ: June 15</t>
   </si>
   <si>
@@ -748,15 +667,6 @@
   </si>
   <si>
     <t>BU/G</t>
-  </si>
-  <si>
-    <t>BBCH 14.07</t>
-  </si>
-  <si>
-    <t>BBCH 17.07</t>
-  </si>
-  <si>
-    <t>BBCH 26-Jul</t>
   </si>
 </sst>
 </file>
@@ -847,13 +757,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1153,12 +1064,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,35 +1090,35 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,37 +1142,37 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,32 +1180,32 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>86</v>
@@ -1302,7 +1213,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>65</v>
@@ -1310,7 +1221,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>99</v>
@@ -1318,7 +1229,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -1326,7 +1237,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1334,7 +1245,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -1342,12 +1253,12 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -1355,7 +1266,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -1363,7 +1274,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>47</v>
@@ -1371,7 +1282,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>72</v>
@@ -1379,7 +1290,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>54</v>
@@ -1387,7 +1298,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>82</v>
@@ -1395,7 +1306,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1408,13 +1319,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG715"/>
+  <dimension ref="A1:AK715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1340,7 @@
     <col min="13" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,98 +1350,110 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D1" s="5">
+        <v>42832</v>
+      </c>
+      <c r="E1" s="6">
+        <v>42835</v>
+      </c>
+      <c r="F1" s="6">
+        <v>42836</v>
+      </c>
+      <c r="G1" s="6">
+        <v>42838</v>
+      </c>
+      <c r="H1" s="6">
+        <v>42842</v>
+      </c>
+      <c r="I1" s="6">
+        <v>42849</v>
+      </c>
+      <c r="J1" s="6">
+        <v>42853</v>
+      </c>
+      <c r="K1" s="6">
+        <v>42856</v>
+      </c>
+      <c r="L1" s="6">
+        <v>42858</v>
+      </c>
+      <c r="M1" s="6">
+        <v>42861</v>
+      </c>
+      <c r="N1" s="6">
+        <v>42865</v>
+      </c>
+      <c r="O1" s="6">
+        <v>42868</v>
+      </c>
+      <c r="P1" s="6">
+        <v>42870</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>42874</v>
+      </c>
+      <c r="R1" s="6">
+        <v>42878</v>
+      </c>
+      <c r="S1" s="6">
+        <v>42880</v>
+      </c>
+      <c r="T1" s="6">
+        <v>42885</v>
+      </c>
+      <c r="U1" s="6">
+        <v>42887</v>
+      </c>
+      <c r="V1" s="6">
+        <v>42891</v>
+      </c>
+      <c r="W1" s="6">
+        <v>42894</v>
+      </c>
+      <c r="X1" s="6">
+        <v>42898</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>42901</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>42906</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>42911</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>42919</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>42923</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>42927</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>42930</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>42933</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>42942</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>42944</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>42948</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>42954</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1601,13 +1524,13 @@
         <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Z2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -1669,7 +1592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
@@ -1722,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -1775,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -1982,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>56</v>
       </c>
@@ -2038,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -2094,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>54</v>
@@ -2219,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>56</v>
@@ -2279,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>57</v>
@@ -2336,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>58</v>
@@ -2402,7 +2325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -2599,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="Y18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -2957,19 +2880,19 @@
         <v>15</v>
       </c>
       <c r="R28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -3259,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="X34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -3645,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="X41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -3935,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="U47" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X47" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -4279,10 +4202,10 @@
         <v>15</v>
       </c>
       <c r="R54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T54">
         <v>15</v>
@@ -4297,12 +4220,12 @@
         <v>15</v>
       </c>
       <c r="X54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -4349,7 +4272,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -4596,10 +4519,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
@@ -4624,44 +4547,44 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="4">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="3">
         <v>42835</v>
       </c>
       <c r="C62" t="s">
@@ -4675,8 +4598,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4">
         <v>0.40069444444444446</v>
       </c>
       <c r="C63" t="s">
@@ -4702,10 +4625,10 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="4">
+      <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="3">
         <v>42836</v>
       </c>
       <c r="C64" t="s">
@@ -4713,8 +4636,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4">
         <v>0.43333333333333335</v>
       </c>
       <c r="C65" t="s">
@@ -4722,11 +4645,11 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>42849</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>111</v>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
@@ -4776,30 +4699,30 @@
         <v>15</v>
       </c>
       <c r="P67" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Q67">
         <v>15</v>
       </c>
       <c r="R67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="T67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="U67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="X67" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>54</v>
@@ -4829,16 +4752,16 @@
         <v>9</v>
       </c>
       <c r="R68" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S68" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="T68" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="U68" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
@@ -5106,10 +5029,10 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
@@ -5186,10 +5109,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="4">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="3">
         <v>42835</v>
       </c>
       <c r="C75" t="s">
@@ -5266,8 +5189,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4">
         <v>0.40069444444444446</v>
       </c>
       <c r="C76" t="s">
@@ -5344,10 +5267,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="4">
+      <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="3">
         <v>42836</v>
       </c>
       <c r="C77" t="s">
@@ -5406,8 +5329,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="4">
         <v>0.43333333333333335</v>
       </c>
       <c r="C78" t="s">
@@ -5473,7 +5396,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
         <v>59</v>
@@ -5544,17 +5467,17 @@
         <v>15</v>
       </c>
       <c r="W80" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X80" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>42842</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>0.3576388888888889</v>
       </c>
       <c r="C81" t="s">
@@ -5613,10 +5536,10 @@
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>42843</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>0.3298611111111111</v>
       </c>
       <c r="C82" t="s">
@@ -5730,12 +5653,12 @@
         <v>12</v>
       </c>
       <c r="X83" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
         <v>54</v>
@@ -6103,15 +6026,15 @@
         <v>15</v>
       </c>
       <c r="T90" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X90" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>54</v>
@@ -6290,15 +6213,15 @@
         <v>15</v>
       </c>
       <c r="T95" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X95" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>54</v>
@@ -6539,7 +6462,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
         <v>54</v>
@@ -6632,13 +6555,13 @@
         <v>15</v>
       </c>
       <c r="V103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="W103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="X103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Y103">
         <v>15</v>
@@ -6689,7 +6612,7 @@
         <v>15</v>
       </c>
       <c r="X104" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Y104">
         <v>14</v>
@@ -6802,7 +6725,7 @@
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="Z109">
         <v>10</v>
@@ -6883,7 +6806,7 @@
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="Z114">
         <v>13</v>
@@ -6898,7 +6821,7 @@
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AB115">
         <v>10</v>
@@ -6907,7 +6830,7 @@
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="AA116">
         <v>9</v>
@@ -6919,7 +6842,7 @@
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="AA117">
         <v>9</v>
@@ -6931,7 +6854,7 @@
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="P118">
         <v>9</v>
@@ -6952,7 +6875,7 @@
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="C119" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AB119">
         <v>9</v>
@@ -6961,7 +6884,7 @@
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="AB120">
         <v>9</v>
@@ -6970,7 +6893,7 @@
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AA121">
         <v>12</v>
@@ -6982,7 +6905,7 @@
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="AA122">
         <v>10</v>
@@ -6994,7 +6917,7 @@
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="AB123">
         <v>10</v>
@@ -7003,7 +6926,7 @@
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="Z124">
         <v>14</v>
@@ -7018,7 +6941,7 @@
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="Z125">
         <v>11</v>
@@ -7033,7 +6956,7 @@
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="Z126">
         <v>13</v>
@@ -7048,13 +6971,13 @@
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AB128">
         <v>10</v>
@@ -7063,7 +6986,7 @@
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="AB129">
         <v>9</v>
@@ -7072,7 +6995,7 @@
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AB130">
         <v>14</v>
@@ -7081,43 +7004,43 @@
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="C137" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
@@ -7154,7 +7077,7 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C139" t="s">
         <v>54</v>
@@ -7181,7 +7104,7 @@
         <v>15</v>
       </c>
       <c r="AB140" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
@@ -7205,7 +7128,7 @@
         <v>15</v>
       </c>
       <c r="AB141" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
@@ -7226,7 +7149,7 @@
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="P143">
         <v>11</v>
@@ -7259,7 +7182,7 @@
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="X144">
         <v>9</v>
@@ -7271,10 +7194,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="Y145">
         <v>11</v>
@@ -7289,13 +7212,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="C146" t="s">
         <v>61</v>
       </c>
       <c r="Q146" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Y146">
         <v>13</v>
@@ -7310,10 +7233,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="P147">
         <v>11</v>
@@ -7337,10 +7260,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="C148" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Y148">
         <v>9</v>
@@ -7355,10 +7278,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Y149">
         <v>9</v>
@@ -7373,10 +7296,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="C150" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="Y150">
         <v>10</v>
@@ -7391,34 +7314,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="C151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AB152">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="C153" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="AB153">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AA154">
         <v>13</v>
@@ -7427,7 +7350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="C155" t="s">
         <v>62</v>
@@ -7439,43 +7362,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="AB156">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="AB157">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="C158" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AB158">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="AB159">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -7509,8 +7432,17 @@
       <c r="AG160">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH160">
+        <v>15</v>
+      </c>
+      <c r="AI160">
+        <v>15</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="C161" t="s">
         <v>54</v>
@@ -7533,8 +7465,14 @@
       <c r="AG161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH161">
+        <v>15</v>
+      </c>
+      <c r="AI161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="C162" t="s">
         <v>56</v>
@@ -7563,8 +7501,14 @@
       <c r="AG162">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH162">
+        <v>15</v>
+      </c>
+      <c r="AI162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="C163" t="s">
         <v>57</v>
@@ -7587,23 +7531,38 @@
       <c r="AG163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH163">
+        <v>9</v>
+      </c>
+      <c r="AI163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="C164" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH164">
+        <v>9</v>
+      </c>
+      <c r="AI164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="C165" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="AI165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AD166">
         <v>14</v>
@@ -7617,17 +7576,29 @@
       <c r="AG166">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH166">
+        <v>15</v>
+      </c>
+      <c r="AI166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="C167" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="AH167">
+        <v>13</v>
+      </c>
+      <c r="AI167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="P168">
         <v>10</v>
@@ -7656,11 +7627,17 @@
       <c r="AG168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH168">
+        <v>15</v>
+      </c>
+      <c r="AI168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD169">
         <v>13</v>
@@ -7674,11 +7651,17 @@
       <c r="AG169">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH169">
+        <v>15</v>
+      </c>
+      <c r="AI169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="AC170">
         <v>13</v>
@@ -7695,8 +7678,14 @@
       <c r="AG170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH170">
+        <v>15</v>
+      </c>
+      <c r="AI170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="C171" t="s">
         <v>64</v>
@@ -7731,11 +7720,17 @@
       <c r="AG171">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH171">
+        <v>15</v>
+      </c>
+      <c r="AI171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="C172" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="AD172">
         <v>15</v>
@@ -7749,11 +7744,17 @@
       <c r="AG172">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH172">
+        <v>15</v>
+      </c>
+      <c r="AI172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="AD173">
         <v>14</v>
@@ -7767,11 +7768,17 @@
       <c r="AG173">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH173">
+        <v>15</v>
+      </c>
+      <c r="AI173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="C174" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="P174">
         <v>11</v>
@@ -7803,11 +7810,17 @@
       <c r="AG174">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH174">
+        <v>15</v>
+      </c>
+      <c r="AI174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="AA175">
         <v>13</v>
@@ -7827,11 +7840,17 @@
       <c r="AG175">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH175">
+        <v>15</v>
+      </c>
+      <c r="AI175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="C176" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AA176">
         <v>9</v>
@@ -7851,14 +7870,20 @@
       <c r="AG176">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH176">
+        <v>15</v>
+      </c>
+      <c r="AI176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="C177" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="AB177" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AC177">
         <v>9</v>
@@ -7875,8 +7900,14 @@
       <c r="AG177">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH177">
+        <v>15</v>
+      </c>
+      <c r="AI177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -7901,14 +7932,32 @@
       <c r="AG178">
         <v>10</v>
       </c>
-    </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH178">
+        <v>11</v>
+      </c>
+      <c r="AI178">
+        <v>13</v>
+      </c>
+      <c r="AJ178">
+        <v>13</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="C179" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI179">
+        <v>9</v>
+      </c>
+      <c r="AJ179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="C180" t="s">
         <v>56</v>
@@ -7916,20 +7965,32 @@
       <c r="AG180">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH180">
+        <v>15</v>
+      </c>
+      <c r="AI180">
+        <v>15</v>
+      </c>
+      <c r="AJ180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="C181" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="C182" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="C183" t="s">
         <v>59</v>
@@ -7937,113 +7998,212 @@
       <c r="AG183">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH183">
+        <v>15</v>
+      </c>
+      <c r="AI183">
+        <v>15</v>
+      </c>
+      <c r="AJ183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="C184" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="C185" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="AI185">
+        <v>9</v>
+      </c>
+      <c r="AJ185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="C186" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="AI186">
+        <v>15</v>
+      </c>
+      <c r="AJ186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="C187" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="AI187">
+        <v>14</v>
+      </c>
+      <c r="AJ187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="C188" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="AH188">
+        <v>15</v>
+      </c>
+      <c r="AI188">
+        <v>15</v>
+      </c>
+      <c r="AJ188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="C189" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="AH189">
+        <v>14</v>
+      </c>
+      <c r="AI189">
+        <v>15</v>
+      </c>
+      <c r="AJ189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="C190" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AG190">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH190">
+        <v>15</v>
+      </c>
+      <c r="AI190">
+        <v>15</v>
+      </c>
+      <c r="AJ190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="C191" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="AG191">
         <v>11</v>
       </c>
-    </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH191">
+        <v>15</v>
+      </c>
+      <c r="AI191">
+        <v>15</v>
+      </c>
+      <c r="AJ191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="C192" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AG192">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH192">
+        <v>15</v>
+      </c>
+      <c r="AI192">
+        <v>15</v>
+      </c>
+      <c r="AJ192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="C193" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH193">
+        <v>14</v>
+      </c>
+      <c r="AI193">
+        <v>15</v>
+      </c>
+      <c r="AJ193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="C194" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="C195" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="C196" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="C197" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="AG197">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH197">
+        <v>15</v>
+      </c>
+      <c r="AI197">
+        <v>15</v>
+      </c>
+      <c r="AJ197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="C198" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="AG198">
         <v>15</v>
       </c>
-    </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH198">
+        <v>15</v>
+      </c>
+      <c r="AI198">
+        <v>15</v>
+      </c>
+      <c r="AJ198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -8078,7 +8238,7 @@
         <v>9</v>
       </c>
       <c r="AB199" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="AC199">
         <v>14</v>
@@ -8095,8 +8255,14 @@
       <c r="AG199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH199">
+        <v>15</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="C200" t="s">
         <v>54</v>
@@ -8131,8 +8297,11 @@
       <c r="AG200">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="C201" t="s">
         <v>56</v>
@@ -8167,8 +8336,11 @@
       <c r="AG201">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="C202" t="s">
         <v>57</v>
@@ -8203,8 +8375,11 @@
       <c r="AG202">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="C203" t="s">
         <v>58</v>
@@ -8236,8 +8411,11 @@
       <c r="AG203">
         <v>15</v>
       </c>
-    </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="C204" t="s">
         <v>59</v>
@@ -8257,8 +8435,11 @@
       <c r="AG204">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="C205" t="s">
         <v>55</v>
@@ -8284,8 +8465,11 @@
       <c r="AG205">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="C206" t="s">
         <v>54</v>
@@ -8314,17 +8498,20 @@
       <c r="AG206">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="C207" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="C208" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="P208">
         <v>9</v>
@@ -8347,11 +8534,14 @@
       <c r="AG208">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="C209" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="P209">
         <v>9</v>
@@ -8374,11 +8564,14 @@
       <c r="AG209">
         <v>15</v>
       </c>
-    </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="C210" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="AC210">
         <v>10</v>
@@ -8395,11 +8588,14 @@
       <c r="AG210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="C211" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="AE211">
         <v>13</v>
@@ -8410,17 +8606,20 @@
       <c r="AG211">
         <v>15</v>
       </c>
-    </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="C212" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="C213" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="AC213">
         <v>15</v>
@@ -8437,11 +8636,14 @@
       <c r="AG213">
         <v>15</v>
       </c>
-    </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="C214" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AC214">
         <v>15</v>
@@ -8458,17 +8660,20 @@
       <c r="AG214">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="C215" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="C216" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AD216">
         <v>15</v>
@@ -8482,11 +8687,14 @@
       <c r="AG216">
         <v>15</v>
       </c>
-    </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="C217" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="AF217">
         <v>13</v>
@@ -8494,11 +8702,14 @@
       <c r="AG217">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH217">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="C218" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="AF218">
         <v>13</v>
@@ -8506,11 +8717,14 @@
       <c r="AG218">
         <v>13</v>
       </c>
-    </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="C219" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="AD219">
         <v>13</v>
@@ -8524,11 +8738,14 @@
       <c r="AG219">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="C220" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AE220">
         <v>10</v>
@@ -8539,14 +8756,17 @@
       <c r="AG220">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="C221" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
@@ -8575,19 +8795,19 @@
         <v>14</v>
       </c>
       <c r="P222" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q222" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R222" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S222" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="C223" t="s">
         <v>54</v>
@@ -8611,7 +8831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="C224" t="s">
         <v>56</v>
@@ -8725,7 +8945,7 @@
     <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="C229" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K229">
         <v>14</v>
@@ -8746,7 +8966,7 @@
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="C230" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K230">
         <v>15</v>
@@ -8767,7 +8987,7 @@
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="C231" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="K231">
         <v>15</v>
@@ -8788,7 +9008,7 @@
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="C232" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="K232">
         <v>10</v>
@@ -8809,7 +9029,7 @@
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="C233" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="K233">
         <v>9</v>
@@ -8830,7 +9050,7 @@
     <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="C234" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K234">
         <v>9</v>
@@ -8851,7 +9071,7 @@
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="C235" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K235">
         <v>10</v>
@@ -8872,7 +9092,7 @@
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="C236" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="K236">
         <v>9</v>
@@ -8893,7 +9113,7 @@
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="C237" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L237">
         <v>9</v>
@@ -8911,7 +9131,7 @@
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K238">
         <v>10</v>
@@ -8932,7 +9152,7 @@
     <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="C239" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J239">
         <v>9</v>
@@ -8956,7 +9176,7 @@
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J240">
         <v>9</v>
@@ -8980,7 +9200,7 @@
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="J241">
         <v>9</v>
@@ -9129,7 +9349,7 @@
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="C252" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="R252">
         <v>9</v>
@@ -9150,7 +9370,7 @@
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="C253" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="R253">
         <v>9</v>
@@ -9183,7 +9403,7 @@
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="C254" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="V254">
         <v>9</v>
@@ -9237,7 +9457,7 @@
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="C256" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="Q256">
         <v>9</v>
@@ -9258,7 +9478,7 @@
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="C257" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O257">
         <v>10</v>
@@ -9300,7 +9520,7 @@
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="C258" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="O258">
         <v>10</v>
@@ -9340,10 +9560,10 @@
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C259" t="s">
@@ -9371,29 +9591,29 @@
         <v>15</v>
       </c>
       <c r="P259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Y259" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <v>42835</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <v>0.40069444444444446</v>
       </c>
       <c r="C260" t="s">
@@ -9422,10 +9642,10 @@
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>42836</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <v>0.43333333333333335</v>
       </c>
       <c r="C261" t="s">
@@ -9454,11 +9674,11 @@
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>42842</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>111</v>
+      <c r="B262" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C262" t="s">
         <v>57</v>
@@ -9486,8 +9706,8 @@
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
       <c r="C263" t="s">
         <v>58</v>
       </c>
@@ -9514,8 +9734,8 @@
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A264" s="4"/>
-      <c r="B264" s="4"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
       <c r="C264" t="s">
         <v>59</v>
       </c>
@@ -9527,8 +9747,8 @@
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
       <c r="C265" t="s">
         <v>57</v>
       </c>
@@ -9555,8 +9775,8 @@
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
       <c r="C266" t="s">
         <v>55</v>
       </c>
@@ -9583,8 +9803,8 @@
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="B267" s="5"/>
+      <c r="A267" s="2"/>
+      <c r="B267" s="4"/>
       <c r="C267" t="s">
         <v>56</v>
       </c>
@@ -9813,7 +10033,7 @@
     <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Z274">
         <v>13</v>
@@ -9822,7 +10042,7 @@
     <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Z275">
         <v>12</v>
@@ -9831,7 +10051,7 @@
     <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Z276">
         <v>13</v>
@@ -9852,7 +10072,7 @@
     <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="V278">
         <v>9</v>
@@ -9873,7 +10093,7 @@
     <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="T279">
         <v>9</v>
@@ -9900,7 +10120,7 @@
     <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="V280">
         <v>9</v>
@@ -9921,7 +10141,7 @@
     <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="X281">
         <v>9</v>
@@ -9930,7 +10150,7 @@
     <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.2">
@@ -9979,7 +10199,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C284" t="s">
         <v>54</v>
@@ -10171,7 +10391,7 @@
     <row r="291" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="C291" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="T291">
         <v>9</v>
@@ -10192,7 +10412,7 @@
     <row r="292" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="C292" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="J292">
         <v>9</v>
@@ -10276,7 +10496,7 @@
     <row r="295" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="C295" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="N295">
         <v>10</v>
@@ -10331,7 +10551,7 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C297" t="s">
         <v>54</v>
@@ -10376,13 +10596,13 @@
         <v>14</v>
       </c>
       <c r="AB300" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="C301" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="X301">
         <v>9</v>
@@ -10391,16 +10611,16 @@
         <v>12</v>
       </c>
       <c r="Z301" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="AA301" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="C302" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="V302">
         <v>11</v>
@@ -10415,19 +10635,19 @@
         <v>15</v>
       </c>
       <c r="Z302" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="AA302" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="C303" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="Z303" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="AA303">
         <v>15</v>
@@ -10436,7 +10656,7 @@
     <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="C304" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="W304">
         <v>9</v>
@@ -10448,16 +10668,16 @@
         <v>13</v>
       </c>
       <c r="Z304" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="AA304" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="C305" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="AA305">
         <v>15</v>
@@ -10466,7 +10686,7 @@
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="C306" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="AA306">
         <v>15</v>
@@ -10475,7 +10695,7 @@
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="C307" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="X307">
         <v>9</v>
@@ -10493,7 +10713,7 @@
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="C308" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="V308">
         <v>10</v>
@@ -10517,7 +10737,7 @@
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="C309" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Z309">
         <v>13</v>
@@ -10529,7 +10749,7 @@
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="C310" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AA310">
         <v>15</v>
@@ -10538,7 +10758,7 @@
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="C311" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="AA311">
         <v>15</v>
@@ -10547,7 +10767,7 @@
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="C312" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="K312">
         <v>10</v>
@@ -10598,13 +10818,13 @@
         <v>15</v>
       </c>
       <c r="AA312" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="C313" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="N313">
         <v>9</v>
@@ -10646,31 +10866,31 @@
         <v>15</v>
       </c>
       <c r="AA313" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="C314" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="C315" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="C316" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="C317" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="O317">
         <v>9</v>
@@ -10694,7 +10914,7 @@
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="C318" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="W318">
         <v>9</v>
@@ -10712,7 +10932,7 @@
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="C319" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="P319">
         <v>9</v>
@@ -10745,7 +10965,7 @@
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="C320" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="AA320">
         <v>15</v>
@@ -10754,7 +10974,7 @@
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="C321" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="AA321">
         <v>15</v>
@@ -10763,7 +10983,7 @@
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="C322" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="AA322">
         <v>10</v>
@@ -10824,7 +11044,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C324" t="s">
         <v>54</v>
@@ -10998,7 +11218,7 @@
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="C330" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="N330">
         <v>11</v>
@@ -11037,7 +11257,7 @@
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="C331" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="V331">
         <v>10</v>
@@ -11052,7 +11272,7 @@
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="C332" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="J332">
         <v>10</v>
@@ -11103,7 +11323,7 @@
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="C333" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J333">
         <v>11</v>
@@ -11154,7 +11374,7 @@
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="C334" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="N334">
         <v>11</v>
@@ -11193,13 +11413,13 @@
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="C335" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="C336" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="X336">
         <v>10</v>
@@ -11208,13 +11428,13 @@
     <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="C337" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="C338" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="V338">
         <v>9</v>
@@ -11229,7 +11449,7 @@
     <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="C339" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="V339">
         <v>9</v>
@@ -11244,7 +11464,7 @@
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="C340" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="X340">
         <v>15</v>
@@ -11253,7 +11473,7 @@
     <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="C341" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="V341">
         <v>14</v>
@@ -11302,7 +11522,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C343" t="s">
         <v>54</v>
@@ -11467,22 +11687,22 @@
         <v>68</v>
       </c>
       <c r="S350" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T350" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="U350" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="V350" t="s">
+        <v>111</v>
+      </c>
+      <c r="W350" t="s">
         <v>119</v>
       </c>
-      <c r="W350" t="s">
-        <v>131</v>
-      </c>
       <c r="X350" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.2">
@@ -11501,7 +11721,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C352" t="s">
         <v>54</v>
@@ -11657,7 +11877,7 @@
     <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="C358" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="J358">
         <v>9</v>
@@ -11714,7 +11934,7 @@
     <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="C359" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N359">
         <v>9</v>
@@ -11759,7 +11979,7 @@
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="C360" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="X360">
         <v>9</v>
@@ -11774,7 +11994,7 @@
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="C361" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="X361">
         <v>9</v>
@@ -11786,7 +12006,7 @@
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="C362" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="X362">
         <v>15</v>
@@ -11798,7 +12018,7 @@
     <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="C363" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="O363">
         <v>9</v>
@@ -11840,7 +12060,7 @@
     <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="C364" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="T364">
         <v>10</v>
@@ -11867,7 +12087,7 @@
     <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="C365" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="P365">
         <v>9</v>
@@ -11906,7 +12126,7 @@
     <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="C366" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="N366">
         <v>9</v>
@@ -11951,7 +12171,7 @@
     <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="C367" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G367">
         <v>9</v>
@@ -12017,7 +12237,7 @@
     <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="C368" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="L368">
         <v>10</v>
@@ -12068,7 +12288,7 @@
     <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="C369" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="I369">
         <v>9</v>
@@ -12128,7 +12348,7 @@
     <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="C370" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H370">
         <v>9</v>
@@ -12191,7 +12411,7 @@
     <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="C371" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H371">
         <v>9</v>
@@ -12245,7 +12465,7 @@
     <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="C372" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H372">
         <v>9</v>
@@ -12299,7 +12519,7 @@
     <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="C373" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H373">
         <v>9</v>
@@ -12362,7 +12582,7 @@
     <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="C374" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="H374">
         <v>9</v>
@@ -12425,7 +12645,7 @@
     <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="C375" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H375">
         <v>9</v>
@@ -12505,19 +12725,19 @@
         <v>15</v>
       </c>
       <c r="L376" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M376" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N376" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O376" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P376" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.2">
@@ -12622,7 +12842,7 @@
     <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="C383" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H383">
         <v>9</v>
@@ -12640,7 +12860,7 @@
     <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="C384" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H384">
         <v>9</v>
@@ -12658,7 +12878,7 @@
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="C385" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="I385">
         <v>9</v>
@@ -12673,7 +12893,7 @@
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="C386" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="I386">
         <v>9</v>
@@ -12688,7 +12908,7 @@
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="C387" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H387">
         <v>10</v>
@@ -12706,7 +12926,7 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="C388" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H388">
         <v>9</v>
@@ -12724,7 +12944,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="C389" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I389">
         <v>11</v>
@@ -12739,7 +12959,7 @@
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="C390" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="I390">
         <v>10</v>
@@ -12754,7 +12974,7 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="C391" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H391">
         <v>10</v>
@@ -12772,7 +12992,7 @@
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="C392" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H392">
         <v>10</v>
@@ -12790,7 +13010,7 @@
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="C393" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="H393">
         <v>9</v>
@@ -12808,7 +13028,7 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="C394" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="H394">
         <v>9</v>
@@ -12826,7 +13046,7 @@
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="C395" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E395">
         <v>10</v>
@@ -12847,7 +13067,7 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="C396" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="H396">
         <v>10</v>
@@ -12865,7 +13085,7 @@
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="C397" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="H397">
         <v>9</v>
@@ -12883,7 +13103,7 @@
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="C398" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="H398">
         <v>11</v>
@@ -12901,7 +13121,7 @@
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="C399" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H399">
         <v>11</v>
@@ -12919,7 +13139,7 @@
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="C400" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H400">
         <v>9</v>
@@ -12954,26 +13174,26 @@
         <v>13</v>
       </c>
       <c r="L401" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M401" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N401" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O401" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P401" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A402" s="4">
+      <c r="A402" s="3">
         <v>42849</v>
       </c>
-      <c r="B402" s="5">
+      <c r="B402" s="4">
         <v>0.41944444444444445</v>
       </c>
       <c r="C402" t="s">
@@ -12990,10 +13210,10 @@
       </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A403" s="4">
+      <c r="A403" s="3">
         <v>42850</v>
       </c>
-      <c r="B403" s="5">
+      <c r="B403" s="4">
         <v>0.40277777777777773</v>
       </c>
       <c r="C403" t="s">
@@ -13006,7 +13226,7 @@
         <v>11</v>
       </c>
       <c r="K403" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.2">
@@ -13096,7 +13316,7 @@
     <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="C411" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G411">
         <v>9</v>
@@ -13114,7 +13334,7 @@
     <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="C412" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G412">
         <v>9</v>
@@ -13132,7 +13352,7 @@
     <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="C413" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G413">
         <v>10</v>
@@ -13150,7 +13370,7 @@
     <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="C414" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="H414">
         <v>9</v>
@@ -13165,13 +13385,13 @@
     <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="C415" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="C416" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G416">
         <v>9</v>
@@ -13189,7 +13409,7 @@
     <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="C417" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D417">
         <v>9</v>
@@ -13213,7 +13433,7 @@
     <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="C418" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D418">
         <v>9</v>
@@ -13237,7 +13457,7 @@
     <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="C419" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D419">
         <v>9</v>
@@ -13261,7 +13481,7 @@
     <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="C420" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H420">
         <v>10</v>
@@ -13276,7 +13496,7 @@
     <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="C421" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H421">
         <v>9</v>
@@ -13291,7 +13511,7 @@
     <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="C422" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="H422">
         <v>9</v>
@@ -13306,7 +13526,7 @@
     <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="C423" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="H423">
         <v>9</v>
@@ -13321,7 +13541,7 @@
     <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="C424" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="H424">
         <v>10</v>
@@ -13336,7 +13556,7 @@
     <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="C425" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H425">
         <v>9</v>
@@ -13351,7 +13571,7 @@
     <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="C426" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D426">
         <v>10</v>
@@ -13375,7 +13595,7 @@
     <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="C427" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D427">
         <v>9</v>
@@ -13399,7 +13619,7 @@
     <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="C428" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D428">
         <v>10</v>
@@ -13423,7 +13643,7 @@
     <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="C429" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D429">
         <v>9</v>
@@ -13447,7 +13667,7 @@
     <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="C430" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D430">
         <v>9</v>
@@ -13497,10 +13717,10 @@
         <v>15</v>
       </c>
       <c r="O431" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P431" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.2">
@@ -13647,7 +13867,7 @@
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="C438" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G438">
         <v>9</v>
@@ -13677,7 +13897,7 @@
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="C439" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="I439">
         <v>12</v>
@@ -13701,7 +13921,7 @@
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="C440" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K440">
         <v>9</v>
@@ -13719,7 +13939,7 @@
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="C441" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J441">
         <v>9</v>
@@ -13740,7 +13960,7 @@
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="C442" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J442">
         <v>9</v>
@@ -13761,7 +13981,7 @@
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="C443" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="N443">
         <v>10</v>
@@ -13770,7 +13990,7 @@
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="C444" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G444">
         <v>9</v>
@@ -13800,7 +14020,7 @@
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="C445" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I445">
         <v>11</v>
@@ -13824,7 +14044,7 @@
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="C446" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I446">
         <v>11</v>
@@ -13848,7 +14068,7 @@
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="C447" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I447">
         <v>10</v>
@@ -13872,7 +14092,7 @@
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="C448" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G448">
         <v>9</v>
@@ -13902,7 +14122,7 @@
     <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="C449" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H449">
         <v>9</v>
@@ -13929,7 +14149,7 @@
     <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="C450" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H450">
         <v>9</v>
@@ -13956,7 +14176,7 @@
     <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="C451" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G451">
         <v>9</v>
@@ -13986,7 +14206,7 @@
     <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="C452" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="G452">
         <v>9</v>
@@ -14016,7 +14236,7 @@
     <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="C453" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="G453">
         <v>9</v>
@@ -14046,7 +14266,7 @@
     <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="C454" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H454">
         <v>10</v>
@@ -14073,7 +14293,7 @@
     <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="C455" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G455">
         <v>9</v>
@@ -14103,7 +14323,7 @@
     <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="C456" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="H456">
         <v>9</v>
@@ -14130,7 +14350,7 @@
     <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="C457" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="H457">
         <v>10</v>
@@ -14157,7 +14377,7 @@
     <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="C458" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="H458">
         <v>9</v>
@@ -14184,7 +14404,7 @@
     <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="C459" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D459">
         <v>9</v>
@@ -14220,7 +14440,7 @@
     <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="C460" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D460">
         <v>9</v>
@@ -14256,7 +14476,7 @@
     <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="C461" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D461">
         <v>9</v>
@@ -14292,7 +14512,7 @@
     <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="C462" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D462">
         <v>9</v>
@@ -14351,12 +14571,12 @@
         <v>15</v>
       </c>
       <c r="P463" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C464" t="s">
         <v>54</v>
@@ -14529,7 +14749,7 @@
         <v>15</v>
       </c>
       <c r="P471" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="472" spans="1:16" x14ac:dyDescent="0.2">
@@ -14637,7 +14857,7 @@
     <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="C477" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="M477" s="1">
         <v>9</v>
@@ -14652,7 +14872,7 @@
     <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="C478" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K478">
         <v>9</v>
@@ -14673,7 +14893,7 @@
     <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="C479" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="M479">
         <v>9</v>
@@ -14688,7 +14908,7 @@
     <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="C480" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="J480">
         <v>9</v>
@@ -14712,7 +14932,7 @@
     <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="C481" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J481">
         <v>10</v>
@@ -14736,7 +14956,7 @@
     <row r="482" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="C482" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="J482">
         <v>9</v>
@@ -14760,7 +14980,7 @@
     <row r="483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="C483" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="J483">
         <v>9</v>
@@ -14784,7 +15004,7 @@
     <row r="484" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="C484" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J484">
         <v>9</v>
@@ -14808,7 +15028,7 @@
     <row r="485" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="C485" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="J485">
         <v>9</v>
@@ -14832,7 +15052,7 @@
     <row r="486" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="C486" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J486">
         <v>9</v>
@@ -14856,7 +15076,7 @@
     <row r="487" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="C487" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="L487">
         <v>9</v>
@@ -14874,7 +15094,7 @@
     <row r="488" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="C488" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="K488">
         <v>9</v>
@@ -14895,7 +15115,7 @@
     <row r="489" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="C489" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L489">
         <v>9</v>
@@ -14913,7 +15133,7 @@
     <row r="490" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="C490" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="I490">
         <v>9</v>
@@ -14940,7 +15160,7 @@
     <row r="491" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="C491" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J491">
         <v>9</v>
@@ -14964,7 +15184,7 @@
     <row r="492" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="C492" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="J492">
         <v>10</v>
@@ -14988,7 +15208,7 @@
     <row r="493" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="C493" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="J493">
         <v>10</v>
@@ -15012,7 +15232,7 @@
     <row r="494" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="C494" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="K494">
         <v>10</v>
@@ -15062,12 +15282,12 @@
         <v>15</v>
       </c>
       <c r="P495" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C496" t="s">
         <v>54</v>
@@ -15121,13 +15341,13 @@
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="C500" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="C501" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="J501">
         <v>9</v>
@@ -15157,7 +15377,7 @@
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="C503" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H503">
         <v>9</v>
@@ -15187,7 +15407,7 @@
     <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="C504" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I504">
         <v>9</v>
@@ -15211,7 +15431,7 @@
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="C505" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I505">
         <v>9</v>
@@ -15238,7 +15458,7 @@
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="C506" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="J506">
         <v>10</v>
@@ -15262,7 +15482,7 @@
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="C507" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="I507">
         <v>10</v>
@@ -15289,7 +15509,7 @@
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="C508" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I508">
         <v>10</v>
@@ -15316,7 +15536,7 @@
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="C509" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="I509">
         <v>11</v>
@@ -15343,7 +15563,7 @@
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="C510" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="I510">
         <v>9</v>
@@ -15370,7 +15590,7 @@
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="C511" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H511">
         <v>10</v>
@@ -15400,7 +15620,7 @@
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="C512" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="G512">
         <v>10</v>
@@ -15433,7 +15653,7 @@
     <row r="513" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="C513" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G513">
         <v>9</v>
@@ -15466,7 +15686,7 @@
     <row r="514" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="C514" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E514">
         <v>9</v>
@@ -15502,7 +15722,7 @@
     <row r="515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="C515" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E515">
         <v>9</v>
@@ -15538,7 +15758,7 @@
     <row r="516" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="C516" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H516">
         <v>10</v>
@@ -15568,7 +15788,7 @@
     <row r="517" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="C517" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J517">
         <v>14</v>
@@ -15592,7 +15812,7 @@
     <row r="518" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="C518" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="M518">
         <v>9</v>
@@ -15639,10 +15859,10 @@
         <v>15</v>
       </c>
       <c r="O519" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P519" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.2">
@@ -15777,7 +15997,7 @@
     <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="C526" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G526">
         <v>9</v>
@@ -15807,7 +16027,7 @@
     <row r="527" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="C527" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="J527">
         <v>9</v>
@@ -15828,7 +16048,7 @@
     <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="C528" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="J528">
         <v>9</v>
@@ -15849,7 +16069,7 @@
     <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="C529" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="J529">
         <v>9</v>
@@ -15870,7 +16090,7 @@
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="C530" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="G530">
         <v>9</v>
@@ -15900,7 +16120,7 @@
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="C531" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="K531">
         <v>9</v>
@@ -15918,7 +16138,7 @@
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="C532" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J532">
         <v>10</v>
@@ -15939,7 +16159,7 @@
     <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="C533" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K533">
         <v>9</v>
@@ -15957,7 +16177,7 @@
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="C534" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G534">
         <v>9</v>
@@ -15987,7 +16207,7 @@
     <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="C535" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="J535">
         <v>10</v>
@@ -16008,7 +16228,7 @@
     <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="C536" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J536">
         <v>9</v>
@@ -16029,7 +16249,7 @@
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="C537" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="J537">
         <v>9</v>
@@ -16050,7 +16270,7 @@
     <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="C538" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="H538">
         <v>9</v>
@@ -16077,7 +16297,7 @@
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="C539" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="I539">
         <v>9</v>
@@ -16101,7 +16321,7 @@
     <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="C540" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="I540">
         <v>9</v>
@@ -16125,7 +16345,7 @@
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="C541" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="I541">
         <v>9</v>
@@ -16149,7 +16369,7 @@
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="C542" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G542">
         <v>9</v>
@@ -16179,7 +16399,7 @@
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="C543" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I543">
         <v>9</v>
@@ -16203,7 +16423,7 @@
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="C544" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="I544">
         <v>9</v>
@@ -16227,7 +16447,7 @@
     <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="C545" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="J545">
         <v>9</v>
@@ -16248,7 +16468,7 @@
     <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="C546" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J546">
         <v>9</v>
@@ -16269,7 +16489,7 @@
     <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="C547" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G547">
         <v>9</v>
@@ -16299,7 +16519,7 @@
     <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="C548" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J548">
         <v>9</v>
@@ -16320,7 +16540,7 @@
     <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="C549" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="I549">
         <v>9</v>
@@ -16344,7 +16564,7 @@
     <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="C550" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="J550">
         <v>9</v>
@@ -16365,7 +16585,7 @@
     <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="C551" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J551">
         <v>9</v>
@@ -16386,7 +16606,7 @@
     <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="C552" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H552">
         <v>9</v>
@@ -16413,7 +16633,7 @@
     <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="C553" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="I553">
         <v>9</v>
@@ -16437,7 +16657,7 @@
     <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="C554" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="J554">
         <v>9</v>
@@ -16458,7 +16678,7 @@
     <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="C555" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="J555">
         <v>9</v>
@@ -16499,26 +16719,26 @@
         <v>15</v>
       </c>
       <c r="L556" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M556" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N556" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O556" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P556" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A557" s="4">
+      <c r="A557" s="3">
         <v>42849</v>
       </c>
-      <c r="B557" s="5">
+      <c r="B557" s="4">
         <v>0.41944444444444445</v>
       </c>
       <c r="C557" t="s">
@@ -16534,14 +16754,14 @@
         <v>14</v>
       </c>
       <c r="K557" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A558" s="4">
+      <c r="A558" s="3">
         <v>42850</v>
       </c>
-      <c r="B558" s="5">
+      <c r="B558" s="4">
         <v>0.40277777777777773</v>
       </c>
       <c r="C558" t="s">
@@ -16635,7 +16855,7 @@
     <row r="565" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="C565" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H565">
         <v>9</v>
@@ -16650,7 +16870,7 @@
     <row r="566" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="C566" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H566">
         <v>9</v>
@@ -16665,7 +16885,7 @@
     <row r="567" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="C567" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="H567">
         <v>9</v>
@@ -16680,7 +16900,7 @@
     <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="C568" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H568">
         <v>9</v>
@@ -16695,19 +16915,19 @@
     <row r="569" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="C569" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="C570" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="C571" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I571">
         <v>11</v>
@@ -16719,7 +16939,7 @@
     <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="C572" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H572">
         <v>10</v>
@@ -16734,7 +16954,7 @@
     <row r="573" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="C573" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="J573">
         <v>9</v>
@@ -16743,7 +16963,7 @@
     <row r="574" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="C574" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I574">
         <v>15</v>
@@ -16772,26 +16992,26 @@
         <v>14</v>
       </c>
       <c r="L575" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M575" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N575" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O575" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P575" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A576" s="4">
+      <c r="A576" s="3">
         <v>42849</v>
       </c>
-      <c r="B576" s="5">
+      <c r="B576" s="4">
         <v>0.41944444444444445</v>
       </c>
       <c r="C576" t="s">
@@ -16808,10 +17028,10 @@
       </c>
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A577" s="4">
+      <c r="A577" s="3">
         <v>42850</v>
       </c>
-      <c r="B577" s="5">
+      <c r="B577" s="4">
         <v>0.40277777777777773</v>
       </c>
       <c r="C577" t="s">
@@ -16857,7 +17077,7 @@
     <row r="580" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="C580" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="I580">
         <v>9</v>
@@ -16887,13 +17107,13 @@
     <row r="582" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="C582" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="C583" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="I583">
         <v>15</v>
@@ -16917,7 +17137,7 @@
     <row r="585" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="C585" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I585">
         <v>14</v>
@@ -16929,7 +17149,7 @@
     <row r="586" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="C586" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I586">
         <v>15</v>
@@ -16953,7 +17173,7 @@
     <row r="588" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="C588" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I588">
         <v>11</v>
@@ -17174,7 +17394,7 @@
     <row r="598" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="C598" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J598">
         <v>9</v>
@@ -17201,7 +17421,7 @@
     <row r="599" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="C599" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J599">
         <v>10</v>
@@ -17228,7 +17448,7 @@
     <row r="600" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="C600" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="J600">
         <v>9</v>
@@ -17273,7 +17493,7 @@
     <row r="602" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="C602" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="J602">
         <v>9</v>
@@ -17300,7 +17520,7 @@
     <row r="603" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="C603" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J603">
         <v>9</v>
@@ -17327,7 +17547,7 @@
     <row r="604" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="C604" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="I604">
         <v>10</v>
@@ -17357,7 +17577,7 @@
     <row r="605" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="C605" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="I605">
         <v>9</v>
@@ -17387,7 +17607,7 @@
     <row r="606" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="C606" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="I606">
         <v>9</v>
@@ -17626,7 +17846,7 @@
     <row r="616" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="C616" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N616">
         <v>9</v>
@@ -17641,7 +17861,7 @@
     <row r="617" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="C617" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="J617">
         <v>9</v>
@@ -17668,7 +17888,7 @@
     <row r="618" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="C618" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="I618">
         <v>9</v>
@@ -17698,7 +17918,7 @@
     <row r="619" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="C619" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H619">
         <v>10</v>
@@ -17731,7 +17951,7 @@
     <row r="620" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="C620" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="H620">
         <v>10</v>
@@ -17740,7 +17960,7 @@
     <row r="621" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="C621" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H621">
         <v>9</v>
@@ -17773,7 +17993,7 @@
     <row r="622" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="C622" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="I622">
         <v>11</v>
@@ -17803,7 +18023,7 @@
     <row r="623" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="C623" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H623">
         <v>15</v>
@@ -17836,7 +18056,7 @@
     <row r="624" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="C624" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H624">
         <v>14</v>
@@ -17869,7 +18089,7 @@
     <row r="625" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="C625" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H625">
         <v>12</v>
@@ -17902,7 +18122,7 @@
     <row r="626" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="C626" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="H626">
         <v>12</v>
@@ -17955,12 +18175,12 @@
         <v>10</v>
       </c>
       <c r="P627" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="628" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C628" t="s">
         <v>54</v>
@@ -18119,7 +18339,7 @@
     <row r="636" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="C636" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="J636">
         <v>10</v>
@@ -18143,7 +18363,7 @@
     <row r="637" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="C637" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="J637">
         <v>9</v>
@@ -18167,7 +18387,7 @@
     <row r="638" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="C638" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="K638">
         <v>9</v>
@@ -18188,7 +18408,7 @@
     <row r="639" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="C639" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H639">
         <v>9</v>
@@ -18218,7 +18438,7 @@
     <row r="640" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="C640" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H640">
         <v>9</v>
@@ -18248,7 +18468,7 @@
     <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="C641" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H641">
         <v>9</v>
@@ -18278,7 +18498,7 @@
     <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="C642" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I642">
         <v>10</v>
@@ -18305,7 +18525,7 @@
     <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="C643" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I643">
         <v>10</v>
@@ -18332,7 +18552,7 @@
     <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="C644" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="I644">
         <v>9</v>
@@ -18359,7 +18579,7 @@
     <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="C645" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I645">
         <v>9</v>
@@ -18386,7 +18606,7 @@
     <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="C646" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="I646">
         <v>11</v>
@@ -18413,7 +18633,7 @@
     <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="C647" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I647">
         <v>10</v>
@@ -18440,7 +18660,7 @@
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="C648" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G648">
         <v>9</v>
@@ -18473,7 +18693,7 @@
     <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="C649" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K649">
         <v>15</v>
@@ -18494,7 +18714,7 @@
     <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="C650" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="H650">
         <v>9</v>
@@ -18524,7 +18744,7 @@
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="C651" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H651">
         <v>9</v>
@@ -18554,7 +18774,7 @@
     <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="C652" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="H652">
         <v>9</v>
@@ -18584,7 +18804,7 @@
     <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="C653" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H653">
         <v>9</v>
@@ -18614,7 +18834,7 @@
     <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="C654" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="H654">
         <v>9</v>
@@ -18644,7 +18864,7 @@
     <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="C655" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="H655">
         <v>9</v>
@@ -18674,7 +18894,7 @@
     <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="C656" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="H656">
         <v>9</v>
@@ -18704,7 +18924,7 @@
     <row r="657" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="C657" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="H657">
         <v>9</v>
@@ -18734,7 +18954,7 @@
     <row r="658" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="C658" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="I658">
         <v>9</v>
@@ -18761,7 +18981,7 @@
     <row r="659" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="C659" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="I659">
         <v>10</v>
@@ -18788,7 +19008,7 @@
     <row r="660" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="C660" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="I660">
         <v>10</v>
@@ -18815,7 +19035,7 @@
     <row r="661" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="C661" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G661">
         <v>9</v>
@@ -18848,7 +19068,7 @@
     <row r="662" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="C662" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="G662">
         <v>9</v>
@@ -18881,7 +19101,7 @@
     <row r="663" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="C663" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="H663">
         <v>10</v>
@@ -18911,7 +19131,7 @@
     <row r="664" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="C664" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="H664">
         <v>9</v>
@@ -18973,7 +19193,7 @@
         <v>15</v>
       </c>
       <c r="T665" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="666" spans="1:20" x14ac:dyDescent="0.2">
@@ -19205,7 +19425,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C674" t="s">
         <v>54</v>
@@ -19346,7 +19566,7 @@
     <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="C682" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="X682">
         <v>9</v>
@@ -19370,7 +19590,7 @@
     <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="C684" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="V684">
         <v>9</v>
@@ -19388,7 +19608,7 @@
     <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="C685" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="V685">
         <v>9</v>
@@ -19633,7 +19853,7 @@
     <row r="695" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="C695" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="S695">
         <v>9</v>
@@ -19660,7 +19880,7 @@
     <row r="696" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="C696" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="P696">
         <v>9</v>
@@ -19696,7 +19916,7 @@
     <row r="697" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="C697" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="M697">
         <v>9</v>
@@ -19732,7 +19952,7 @@
     <row r="698" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="C698" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L698">
         <v>9</v>
@@ -19827,15 +20047,15 @@
         <v>15</v>
       </c>
       <c r="T699" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U699" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="700" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C700" t="s">
         <v>54</v>
@@ -19843,7 +20063,7 @@
     </row>
     <row r="701" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C701" t="s">
         <v>56</v>
@@ -19937,7 +20157,7 @@
     </row>
     <row r="706" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C706" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="H706">
         <v>9</v>
@@ -19975,7 +20195,7 @@
     </row>
     <row r="707" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C707" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I707">
         <v>9</v>
@@ -20010,7 +20230,7 @@
     </row>
     <row r="708" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C708" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="I708">
         <v>9</v>
@@ -20045,7 +20265,7 @@
     </row>
     <row r="709" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C709" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="I709">
         <v>9</v>
@@ -20080,7 +20300,7 @@
     </row>
     <row r="710" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C710" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="L710">
         <v>10</v>
@@ -20106,7 +20326,7 @@
     </row>
     <row r="711" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C711" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="N711">
         <v>9</v>
@@ -20117,7 +20337,7 @@
     </row>
     <row r="712" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C712" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="N712">
         <v>9</v>
@@ -20140,7 +20360,7 @@
     </row>
     <row r="713" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C713" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="L713">
         <v>9</v>
@@ -20166,7 +20386,7 @@
     </row>
     <row r="714" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C714" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="L714">
         <v>9</v>
@@ -20192,7 +20412,7 @@
     </row>
     <row r="715" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C715" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="N715">
         <v>9</v>

--- a/data/Buds Sheet.xlsx
+++ b/data/Buds Sheet.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="520" windowWidth="37760" windowHeight="23680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5080" yWindow="520" windowWidth="37760" windowHeight="23680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="observations" sheetId="1" r:id="rId2"/>
+    <sheet name="traits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">observations!$A$1:$AD$715</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="214">
   <si>
     <t>NEW</t>
   </si>
@@ -668,6 +669,12 @@
   <si>
     <t>BU/G</t>
   </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
 </sst>
 </file>
 
@@ -1321,11 +1328,11 @@
   </sheetPr>
   <dimension ref="A1:AK715"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1344,7 @@
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="25" width="10.83203125" customWidth="1"/>
+    <col min="13" max="37" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
@@ -20438,6 +20445,5562 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="19" fitToHeight="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y715"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="D711" sqref="D711"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42835</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42836</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>42849</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42835</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="3">
+        <v>42836</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>42842</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="C107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="C114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="C115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="C118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="C119" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="C131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="C132" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="C133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="C134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="C135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="C137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="C140" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="C141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="C142" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="C143" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="C144" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="C145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="C146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="C147" t="s">
+        <v>156</v>
+      </c>
+      <c r="D147">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="C149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="C151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="C152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="C153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="C154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="C155" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="C156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="C157" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="C162" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="C165" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="C167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="C168" t="s">
+        <v>156</v>
+      </c>
+      <c r="D168">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="C169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="C170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="C171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="C172" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="C173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="C174" t="s">
+        <v>152</v>
+      </c>
+      <c r="D174">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="C175" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="C176" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="C177" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>55</v>
+      </c>
+      <c r="D178">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="C181" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="C184" t="s">
+        <v>137</v>
+      </c>
+      <c r="D184">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="C185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="C186" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="C187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="C188" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="C189" t="s">
+        <v>156</v>
+      </c>
+      <c r="D189">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="C190" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="C191" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="C192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="C193" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="C194" t="s">
+        <v>157</v>
+      </c>
+      <c r="D194">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="C195" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="C196" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="C197" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="C198" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>55</v>
+      </c>
+      <c r="D199">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="C201" t="s">
+        <v>56</v>
+      </c>
+      <c r="D201">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="C202" t="s">
+        <v>57</v>
+      </c>
+      <c r="D202">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="C203" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="C204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="C205" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="C206" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="C207" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="C208" t="s">
+        <v>149</v>
+      </c>
+      <c r="D208">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="C209" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="C210" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="C211" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="C212" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="C213" t="s">
+        <v>156</v>
+      </c>
+      <c r="D213">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="C214" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="C215" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="C216" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="C217" t="s">
+        <v>166</v>
+      </c>
+      <c r="D217">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="C218" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="C219" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="C220" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="C221" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>55</v>
+      </c>
+      <c r="D222">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="C223" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="C224" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="C226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="C227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="C228" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="C229" t="s">
+        <v>149</v>
+      </c>
+      <c r="D229">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="C230" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="C231" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="C232" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="C233" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="C234" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="C235" t="s">
+        <v>172</v>
+      </c>
+      <c r="D235">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+      <c r="C236" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="C237" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="C238" t="s">
+        <v>133</v>
+      </c>
+      <c r="D238">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="C239" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="C240" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="C241" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>55</v>
+      </c>
+      <c r="D242">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="C243" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+      <c r="C244" t="s">
+        <v>56</v>
+      </c>
+      <c r="D244">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="C245" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="C246" t="s">
+        <v>58</v>
+      </c>
+      <c r="D246">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="C247" t="s">
+        <v>59</v>
+      </c>
+      <c r="D247">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="C248" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="C249" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="C250" t="s">
+        <v>56</v>
+      </c>
+      <c r="D250">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="C251" t="s">
+        <v>57</v>
+      </c>
+      <c r="D251">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="C252" t="s">
+        <v>175</v>
+      </c>
+      <c r="D252">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="C253" t="s">
+        <v>176</v>
+      </c>
+      <c r="D253">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="C254" t="s">
+        <v>177</v>
+      </c>
+      <c r="D254">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="C255" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+      <c r="C256" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+      <c r="C257" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+      <c r="C258" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+      <c r="D259">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>42835</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>42836</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C261" t="s">
+        <v>56</v>
+      </c>
+      <c r="D261">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>42842</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C262" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+      <c r="D264">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" t="s">
+        <v>57</v>
+      </c>
+      <c r="D265">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="2"/>
+      <c r="B267" s="4"/>
+      <c r="C267" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>55</v>
+      </c>
+      <c r="D268">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="C270" t="s">
+        <v>56</v>
+      </c>
+      <c r="D270">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="C271" t="s">
+        <v>57</v>
+      </c>
+      <c r="D271">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="C273" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="C274" t="s">
+        <v>156</v>
+      </c>
+      <c r="D274">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="C275" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="C276" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="C277" t="s">
+        <v>67</v>
+      </c>
+      <c r="D277">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="C278" t="s">
+        <v>157</v>
+      </c>
+      <c r="D278">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="C279" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="C280" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="C281" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="C282" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>55</v>
+      </c>
+      <c r="D283">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C284" t="s">
+        <v>54</v>
+      </c>
+      <c r="D284">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="C285" t="s">
+        <v>56</v>
+      </c>
+      <c r="D285">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="C286" t="s">
+        <v>57</v>
+      </c>
+      <c r="D286">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="C287" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+      <c r="D288">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="C289" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="C290" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="C291" t="s">
+        <v>149</v>
+      </c>
+      <c r="D291">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="C292" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="C293" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="C294" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+      <c r="C295" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B296" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" t="s">
+        <v>55</v>
+      </c>
+      <c r="D296">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C297" t="s">
+        <v>54</v>
+      </c>
+      <c r="D297">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+      <c r="C298" t="s">
+        <v>56</v>
+      </c>
+      <c r="D298">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+      <c r="C299" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+      <c r="C301" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+      <c r="C302" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="C303" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="C304" t="s">
+        <v>137</v>
+      </c>
+      <c r="D304">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="C305" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+      <c r="C306" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="C307" t="s">
+        <v>156</v>
+      </c>
+      <c r="D307">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+      <c r="C308" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+      <c r="C309" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="C310" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+      <c r="C311" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+      <c r="C312" t="s">
+        <v>152</v>
+      </c>
+      <c r="D312">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+      <c r="C313" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+      <c r="C314" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="C315" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+      <c r="C316" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="C317" t="s">
+        <v>181</v>
+      </c>
+      <c r="D317">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+      <c r="C318" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+      <c r="C319" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+      <c r="C320" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="C321" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+      <c r="C322" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" t="s">
+        <v>55</v>
+      </c>
+      <c r="D323">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C324" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+      <c r="C325" t="s">
+        <v>56</v>
+      </c>
+      <c r="D325">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="C327" t="s">
+        <v>58</v>
+      </c>
+      <c r="D327">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+      <c r="C328" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+      <c r="C329" t="s">
+        <v>55</v>
+      </c>
+      <c r="D329">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+      <c r="C330" t="s">
+        <v>156</v>
+      </c>
+      <c r="D330">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+      <c r="C331" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="C332" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+      <c r="C333" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+      <c r="C334" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="C335" t="s">
+        <v>157</v>
+      </c>
+      <c r="D335">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="C336" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="C337" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+      <c r="C338" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+      <c r="C339" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="C340" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+      <c r="C341" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" t="s">
+        <v>55</v>
+      </c>
+      <c r="D342">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C343" t="s">
+        <v>54</v>
+      </c>
+      <c r="D343">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+      <c r="C344" t="s">
+        <v>56</v>
+      </c>
+      <c r="D344">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+      <c r="C345" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+      <c r="C346" t="s">
+        <v>58</v>
+      </c>
+      <c r="D346">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+      <c r="C347" t="s">
+        <v>59</v>
+      </c>
+      <c r="D347">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+      <c r="C348" t="s">
+        <v>55</v>
+      </c>
+      <c r="D348">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+      <c r="C349" t="s">
+        <v>54</v>
+      </c>
+      <c r="D349">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" t="s">
+        <v>55</v>
+      </c>
+      <c r="D351">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C352" t="s">
+        <v>54</v>
+      </c>
+      <c r="D352">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+      <c r="C353" t="s">
+        <v>56</v>
+      </c>
+      <c r="D353">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+      <c r="C354" t="s">
+        <v>57</v>
+      </c>
+      <c r="D354">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+      <c r="C355" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+      <c r="C356" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+      <c r="C357" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="C358" t="s">
+        <v>156</v>
+      </c>
+      <c r="D358">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="C359" t="s">
+        <v>143</v>
+      </c>
+      <c r="D359">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+      <c r="C360" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+      <c r="C361" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+      <c r="C362" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="C363" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+      <c r="C364" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+      <c r="C365" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+      <c r="C366" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="C367" t="s">
+        <v>152</v>
+      </c>
+      <c r="D367">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+      <c r="C368" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="C369" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+      <c r="C370" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+      <c r="C371" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+      <c r="C372" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+      <c r="C373" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+      <c r="C374" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+      <c r="C375" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376" t="s">
+        <v>55</v>
+      </c>
+      <c r="D376">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+      <c r="C377" t="s">
+        <v>54</v>
+      </c>
+      <c r="D377">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+      <c r="C378" t="s">
+        <v>56</v>
+      </c>
+      <c r="D378">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+      <c r="C379" t="s">
+        <v>57</v>
+      </c>
+      <c r="D379">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+      <c r="C380" t="s">
+        <v>58</v>
+      </c>
+      <c r="D380">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="C381" t="s">
+        <v>59</v>
+      </c>
+      <c r="D381">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+      <c r="C382" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="C383" t="s">
+        <v>149</v>
+      </c>
+      <c r="D383">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+      <c r="C384" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+      <c r="C385" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+      <c r="C386" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="C387" t="s">
+        <v>133</v>
+      </c>
+      <c r="D387">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+      <c r="C388" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1"/>
+      <c r="C389" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+      <c r="C390" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1"/>
+      <c r="C391" t="s">
+        <v>137</v>
+      </c>
+      <c r="D391">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+      <c r="C392" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+      <c r="C393" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+      <c r="C394" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+      <c r="C395" t="s">
+        <v>156</v>
+      </c>
+      <c r="D395">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+      <c r="C396" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="C397" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
+      <c r="C398" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+      <c r="C399" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+      <c r="C400" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B401" t="s">
+        <v>13</v>
+      </c>
+      <c r="C401" t="s">
+        <v>55</v>
+      </c>
+      <c r="D401">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="3">
+        <v>42849</v>
+      </c>
+      <c r="B402" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C402" t="s">
+        <v>54</v>
+      </c>
+      <c r="D402">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B403" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C403" t="s">
+        <v>56</v>
+      </c>
+      <c r="D403">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+      <c r="C404" t="s">
+        <v>57</v>
+      </c>
+      <c r="D404">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1"/>
+      <c r="C405" t="s">
+        <v>58</v>
+      </c>
+      <c r="D405">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+      <c r="C406" t="s">
+        <v>59</v>
+      </c>
+      <c r="D406">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+      <c r="C407" t="s">
+        <v>55</v>
+      </c>
+      <c r="D407">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1"/>
+      <c r="C408" t="s">
+        <v>54</v>
+      </c>
+      <c r="D408">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+      <c r="C409" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1"/>
+      <c r="C410" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+      <c r="C411" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+      <c r="C412" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="C413" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+      <c r="C414" t="s">
+        <v>181</v>
+      </c>
+      <c r="D414">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+      <c r="C415" t="s">
+        <v>175</v>
+      </c>
+      <c r="D415">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+      <c r="C416" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+      <c r="C417" t="s">
+        <v>133</v>
+      </c>
+      <c r="D417">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+      <c r="C418" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="1"/>
+      <c r="C419" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+      <c r="C420" t="s">
+        <v>137</v>
+      </c>
+      <c r="D420">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+      <c r="C421" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="1"/>
+      <c r="C422" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+      <c r="C423" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+      <c r="C424" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+      <c r="C425" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+      <c r="C426" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+      <c r="C427" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="C428" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+      <c r="C429" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+      <c r="C430" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431" t="s">
+        <v>55</v>
+      </c>
+      <c r="D431">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+      <c r="C432" t="s">
+        <v>54</v>
+      </c>
+      <c r="D432">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="1"/>
+      <c r="C433" t="s">
+        <v>56</v>
+      </c>
+      <c r="D433">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+      <c r="C434" t="s">
+        <v>57</v>
+      </c>
+      <c r="D434">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+      <c r="C435" t="s">
+        <v>58</v>
+      </c>
+      <c r="D435">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+      <c r="C436" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="1"/>
+      <c r="C437" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="1"/>
+      <c r="C438" t="s">
+        <v>149</v>
+      </c>
+      <c r="D438">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+      <c r="C439" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="C440" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="1"/>
+      <c r="C441" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+      <c r="C442" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="C443" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="1"/>
+      <c r="C444" t="s">
+        <v>137</v>
+      </c>
+      <c r="D444">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="1"/>
+      <c r="C445" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+      <c r="C446" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+      <c r="C447" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="C448" t="s">
+        <v>157</v>
+      </c>
+      <c r="D448">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+      <c r="C449" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+      <c r="C450" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="1"/>
+      <c r="C451" t="s">
+        <v>156</v>
+      </c>
+      <c r="D451">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+      <c r="C452" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+      <c r="C453" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+      <c r="C454" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="C455" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+      <c r="C456" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+      <c r="C457" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+      <c r="C458" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+      <c r="C459" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+      <c r="C460" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="1"/>
+      <c r="C461" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+      <c r="C462" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B463" t="s">
+        <v>13</v>
+      </c>
+      <c r="C463" t="s">
+        <v>55</v>
+      </c>
+      <c r="D463">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C464" t="s">
+        <v>54</v>
+      </c>
+      <c r="D464">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+      <c r="C465" t="s">
+        <v>56</v>
+      </c>
+      <c r="D465">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+      <c r="C466" t="s">
+        <v>57</v>
+      </c>
+      <c r="D466">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+      <c r="C467" t="s">
+        <v>58</v>
+      </c>
+      <c r="D467">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="1"/>
+      <c r="C468" t="s">
+        <v>59</v>
+      </c>
+      <c r="D468">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+      <c r="C469" t="s">
+        <v>55</v>
+      </c>
+      <c r="D469">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+      <c r="C470" t="s">
+        <v>56</v>
+      </c>
+      <c r="D470">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B471" t="s">
+        <v>3</v>
+      </c>
+      <c r="C471" t="s">
+        <v>55</v>
+      </c>
+      <c r="D471">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+      <c r="C472" t="s">
+        <v>54</v>
+      </c>
+      <c r="D472">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+      <c r="C473" t="s">
+        <v>56</v>
+      </c>
+      <c r="D473">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+      <c r="C474" t="s">
+        <v>57</v>
+      </c>
+      <c r="D474">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="C475" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476" s="1"/>
+      <c r="C476" t="s">
+        <v>59</v>
+      </c>
+      <c r="D476">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" s="1"/>
+      <c r="C477" t="s">
+        <v>149</v>
+      </c>
+      <c r="D477">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+      <c r="C478" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" s="1"/>
+      <c r="C479" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="1"/>
+      <c r="C480" t="s">
+        <v>133</v>
+      </c>
+      <c r="D480">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="1"/>
+      <c r="C481" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+      <c r="C482" t="s">
+        <v>137</v>
+      </c>
+      <c r="D482">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+      <c r="C483" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="1"/>
+      <c r="C484" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="C485" t="s">
+        <v>156</v>
+      </c>
+      <c r="D485">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+      <c r="C486" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="1"/>
+      <c r="C487" t="s">
+        <v>157</v>
+      </c>
+      <c r="D487">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="C488" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="1"/>
+      <c r="C489" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="1"/>
+      <c r="C490" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="1"/>
+      <c r="C491" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+      <c r="C492" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="C493" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="1"/>
+      <c r="C494" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B495" t="s">
+        <v>13</v>
+      </c>
+      <c r="C495" t="s">
+        <v>55</v>
+      </c>
+      <c r="D495">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C496" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="1"/>
+      <c r="C497" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="1"/>
+      <c r="C498" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="1"/>
+      <c r="C499" t="s">
+        <v>63</v>
+      </c>
+      <c r="D499">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+      <c r="C500" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="1"/>
+      <c r="C501" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="1"/>
+      <c r="C502" t="s">
+        <v>69</v>
+      </c>
+      <c r="D502">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="1"/>
+      <c r="C503" t="s">
+        <v>137</v>
+      </c>
+      <c r="D503">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="C504" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="C505" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="1"/>
+      <c r="C506" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="1"/>
+      <c r="C507" t="s">
+        <v>157</v>
+      </c>
+      <c r="D507">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="1"/>
+      <c r="C508" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="1"/>
+      <c r="C509" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="1"/>
+      <c r="C510" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="1"/>
+      <c r="C511" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="1"/>
+      <c r="C512" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="1"/>
+      <c r="C513" t="s">
+        <v>149</v>
+      </c>
+      <c r="D513">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="1"/>
+      <c r="C514" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="1"/>
+      <c r="C515" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="1"/>
+      <c r="C516" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="1"/>
+      <c r="C517" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="1"/>
+      <c r="C518" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B519" t="s">
+        <v>3</v>
+      </c>
+      <c r="C519" t="s">
+        <v>55</v>
+      </c>
+      <c r="D519">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+      <c r="C520" t="s">
+        <v>54</v>
+      </c>
+      <c r="D520">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="1"/>
+      <c r="C521" t="s">
+        <v>56</v>
+      </c>
+      <c r="D521">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+      <c r="C522" t="s">
+        <v>57</v>
+      </c>
+      <c r="D522">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="1"/>
+      <c r="C523" t="s">
+        <v>58</v>
+      </c>
+      <c r="D523">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+      <c r="C524" t="s">
+        <v>59</v>
+      </c>
+      <c r="D524">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="1"/>
+      <c r="C525" t="s">
+        <v>55</v>
+      </c>
+      <c r="D525">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="1"/>
+      <c r="C526" t="s">
+        <v>149</v>
+      </c>
+      <c r="D526">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+      <c r="C527" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="1"/>
+      <c r="C528" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+      <c r="C529" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+      <c r="C530" t="s">
+        <v>133</v>
+      </c>
+      <c r="D530">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="1"/>
+      <c r="C531" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="1"/>
+      <c r="C532" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="1"/>
+      <c r="C533" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="C534" t="s">
+        <v>137</v>
+      </c>
+      <c r="D534">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="1"/>
+      <c r="C535" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="1"/>
+      <c r="C536" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+      <c r="C537" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="1"/>
+      <c r="C538" t="s">
+        <v>156</v>
+      </c>
+      <c r="D538">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="1"/>
+      <c r="C539" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="1"/>
+      <c r="C540" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+      <c r="C541" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+      <c r="C542" t="s">
+        <v>157</v>
+      </c>
+      <c r="D542">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="1"/>
+      <c r="C543" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="1"/>
+      <c r="C544" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="1"/>
+      <c r="C545" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+      <c r="C546" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" s="1"/>
+      <c r="C547" t="s">
+        <v>152</v>
+      </c>
+      <c r="D547">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="1"/>
+      <c r="C548" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" s="1"/>
+      <c r="C549" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+      <c r="C550" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+      <c r="C551" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="1"/>
+      <c r="C552" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+      <c r="C553" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" s="1"/>
+      <c r="C554" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+      <c r="C555" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B556" t="s">
+        <v>13</v>
+      </c>
+      <c r="C556" t="s">
+        <v>55</v>
+      </c>
+      <c r="D556">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="3">
+        <v>42849</v>
+      </c>
+      <c r="B557" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C557" t="s">
+        <v>54</v>
+      </c>
+      <c r="D557">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B558" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C558" t="s">
+        <v>56</v>
+      </c>
+      <c r="D558">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="1"/>
+      <c r="C559" t="s">
+        <v>57</v>
+      </c>
+      <c r="D559">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" s="1"/>
+      <c r="C560" t="s">
+        <v>58</v>
+      </c>
+      <c r="D560">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="1"/>
+      <c r="C561" t="s">
+        <v>59</v>
+      </c>
+      <c r="D561">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="1"/>
+      <c r="C562" t="s">
+        <v>55</v>
+      </c>
+      <c r="D562">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="1"/>
+      <c r="C563" t="s">
+        <v>56</v>
+      </c>
+      <c r="D563">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="1"/>
+      <c r="C564" t="s">
+        <v>54</v>
+      </c>
+      <c r="D564">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="1"/>
+      <c r="C565" t="s">
+        <v>149</v>
+      </c>
+      <c r="D565">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+      <c r="C566" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="1"/>
+      <c r="C567" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="1"/>
+      <c r="C568" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+      <c r="C569" t="s">
+        <v>133</v>
+      </c>
+      <c r="D569">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="1"/>
+      <c r="C570" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="1"/>
+      <c r="C571" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="1"/>
+      <c r="C572" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+      <c r="C573" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="1"/>
+      <c r="C574" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B575" t="s">
+        <v>13</v>
+      </c>
+      <c r="C575" t="s">
+        <v>55</v>
+      </c>
+      <c r="D575">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>42849</v>
+      </c>
+      <c r="B576" s="4">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C576" t="s">
+        <v>54</v>
+      </c>
+      <c r="D576">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B577" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C577" t="s">
+        <v>56</v>
+      </c>
+      <c r="D577">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="1"/>
+      <c r="C578" t="s">
+        <v>57</v>
+      </c>
+      <c r="D578">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="C579" t="s">
+        <v>58</v>
+      </c>
+      <c r="D579">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="1"/>
+      <c r="C580" t="s">
+        <v>203</v>
+      </c>
+      <c r="D580">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="1"/>
+      <c r="C581" t="s">
+        <v>59</v>
+      </c>
+      <c r="D581">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" s="1"/>
+      <c r="C582" t="s">
+        <v>149</v>
+      </c>
+      <c r="D582">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" s="1"/>
+      <c r="C583" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" s="1"/>
+      <c r="C584" t="s">
+        <v>69</v>
+      </c>
+      <c r="D584">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+      <c r="C585" t="s">
+        <v>137</v>
+      </c>
+      <c r="D585">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" s="1"/>
+      <c r="C586" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" s="1"/>
+      <c r="C587" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="1"/>
+      <c r="C588" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B589" t="s">
+        <v>3</v>
+      </c>
+      <c r="C589" t="s">
+        <v>55</v>
+      </c>
+      <c r="D589">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+      <c r="C590" t="s">
+        <v>54</v>
+      </c>
+      <c r="D590">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="1"/>
+      <c r="C591" t="s">
+        <v>56</v>
+      </c>
+      <c r="D591">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="C592" t="s">
+        <v>57</v>
+      </c>
+      <c r="D592">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="1"/>
+      <c r="C593" t="s">
+        <v>58</v>
+      </c>
+      <c r="D593">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="1"/>
+      <c r="C594" t="s">
+        <v>59</v>
+      </c>
+      <c r="D594">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="1"/>
+      <c r="C595" t="s">
+        <v>55</v>
+      </c>
+      <c r="D595">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
+      <c r="C596" t="s">
+        <v>54</v>
+      </c>
+      <c r="D596">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="1"/>
+      <c r="C597" t="s">
+        <v>56</v>
+      </c>
+      <c r="D597">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="1"/>
+      <c r="C598" t="s">
+        <v>204</v>
+      </c>
+      <c r="D598">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+      <c r="C599" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1"/>
+      <c r="C600" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="1"/>
+      <c r="C601" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" s="1"/>
+      <c r="C602" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603" s="1"/>
+      <c r="C603" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" s="1"/>
+      <c r="C604" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" s="1"/>
+      <c r="C605" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" s="1"/>
+      <c r="C606" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B607" t="s">
+        <v>3</v>
+      </c>
+      <c r="C607" t="s">
+        <v>55</v>
+      </c>
+      <c r="D607">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" s="1"/>
+      <c r="C608" t="s">
+        <v>54</v>
+      </c>
+      <c r="D608">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" s="1"/>
+      <c r="C609" t="s">
+        <v>56</v>
+      </c>
+      <c r="D609">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" s="1"/>
+      <c r="C610" t="s">
+        <v>57</v>
+      </c>
+      <c r="D610">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+      <c r="C611" t="s">
+        <v>58</v>
+      </c>
+      <c r="D611">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1"/>
+      <c r="C612" t="s">
+        <v>59</v>
+      </c>
+      <c r="D612">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="1"/>
+      <c r="C613" t="s">
+        <v>55</v>
+      </c>
+      <c r="D613">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1"/>
+      <c r="C614" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1"/>
+      <c r="C615" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" s="1"/>
+      <c r="C616" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" s="1"/>
+      <c r="C617" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+      <c r="C618" t="s">
+        <v>149</v>
+      </c>
+      <c r="D618">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" s="1"/>
+      <c r="C619" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" s="1"/>
+      <c r="C620" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1"/>
+      <c r="C621" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1"/>
+      <c r="C622" t="s">
+        <v>133</v>
+      </c>
+      <c r="D622">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" s="1"/>
+      <c r="C623" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1"/>
+      <c r="C624" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="1"/>
+      <c r="C625" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="C626" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B627" t="s">
+        <v>13</v>
+      </c>
+      <c r="C627" t="s">
+        <v>55</v>
+      </c>
+      <c r="D627">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C628" t="s">
+        <v>54</v>
+      </c>
+      <c r="D628">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" s="1"/>
+      <c r="C629" t="s">
+        <v>56</v>
+      </c>
+      <c r="D629">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
+      <c r="C630" t="s">
+        <v>57</v>
+      </c>
+      <c r="D630">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631" s="1"/>
+      <c r="C631" t="s">
+        <v>58</v>
+      </c>
+      <c r="D631">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+      <c r="C632" t="s">
+        <v>59</v>
+      </c>
+      <c r="D632">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+      <c r="C633" t="s">
+        <v>55</v>
+      </c>
+      <c r="D633">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+      <c r="C634" t="s">
+        <v>56</v>
+      </c>
+      <c r="D634">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" s="1"/>
+      <c r="C635" t="s">
+        <v>54</v>
+      </c>
+      <c r="D635">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636" s="1"/>
+      <c r="C636" t="s">
+        <v>149</v>
+      </c>
+      <c r="D636">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" s="1"/>
+      <c r="C637" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="C638" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" s="1"/>
+      <c r="C639" t="s">
+        <v>133</v>
+      </c>
+      <c r="D639">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" s="1"/>
+      <c r="C640" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1"/>
+      <c r="C641" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="1"/>
+      <c r="C642" t="s">
+        <v>137</v>
+      </c>
+      <c r="D642">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="1"/>
+      <c r="C643" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+      <c r="C644" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" s="1"/>
+      <c r="C645" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
+      <c r="C646" t="s">
+        <v>157</v>
+      </c>
+      <c r="D646">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="1"/>
+      <c r="C647" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" s="1"/>
+      <c r="C648" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" s="1"/>
+      <c r="C649" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+      <c r="C650" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="1"/>
+      <c r="C651" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="1"/>
+      <c r="C652" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="1"/>
+      <c r="C653" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654" s="1"/>
+      <c r="C654" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="1"/>
+      <c r="C655" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+      <c r="C656" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657" s="1"/>
+      <c r="C657" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658" s="1"/>
+      <c r="C658" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659" s="1"/>
+      <c r="C659" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660" s="1"/>
+      <c r="C660" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661" s="1"/>
+      <c r="C661" t="s">
+        <v>199</v>
+      </c>
+      <c r="D661">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662" s="1"/>
+      <c r="C662" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663" s="1"/>
+      <c r="C663" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+      <c r="C664" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3</v>
+      </c>
+      <c r="C665" t="s">
+        <v>55</v>
+      </c>
+      <c r="D665">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666" s="1"/>
+      <c r="C666" t="s">
+        <v>54</v>
+      </c>
+      <c r="D666">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667" s="1"/>
+      <c r="C667" t="s">
+        <v>56</v>
+      </c>
+      <c r="D667">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668" s="1"/>
+      <c r="C668" t="s">
+        <v>57</v>
+      </c>
+      <c r="D668">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669" s="1"/>
+      <c r="C669" t="s">
+        <v>58</v>
+      </c>
+      <c r="D669">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
+      <c r="C670" t="s">
+        <v>59</v>
+      </c>
+      <c r="D670">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671" s="1"/>
+      <c r="C671" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672" s="1"/>
+      <c r="C672" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B673" t="s">
+        <v>13</v>
+      </c>
+      <c r="C673" t="s">
+        <v>55</v>
+      </c>
+      <c r="D673">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C674" t="s">
+        <v>54</v>
+      </c>
+      <c r="D674">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675" s="1"/>
+      <c r="C675" t="s">
+        <v>56</v>
+      </c>
+      <c r="D675">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676" s="1"/>
+      <c r="C676" t="s">
+        <v>57</v>
+      </c>
+      <c r="D676">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677" s="1"/>
+      <c r="C677" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678" s="1"/>
+      <c r="C678" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679" s="1"/>
+      <c r="C679" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680" s="1"/>
+      <c r="C680" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681" s="1"/>
+      <c r="C681" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682" s="1"/>
+      <c r="C682" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683" s="1"/>
+      <c r="C683" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684" s="1"/>
+      <c r="C684" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685" s="1"/>
+      <c r="C685" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B686" t="s">
+        <v>3</v>
+      </c>
+      <c r="C686" t="s">
+        <v>55</v>
+      </c>
+      <c r="D686">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687" s="1"/>
+      <c r="C687" t="s">
+        <v>54</v>
+      </c>
+      <c r="D687">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688" s="1"/>
+      <c r="C688" t="s">
+        <v>56</v>
+      </c>
+      <c r="D688">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" s="1"/>
+      <c r="C689" t="s">
+        <v>57</v>
+      </c>
+      <c r="D689">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690" s="1"/>
+      <c r="C690" t="s">
+        <v>58</v>
+      </c>
+      <c r="D690">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691" s="1"/>
+      <c r="C691" t="s">
+        <v>59</v>
+      </c>
+      <c r="D691">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692" s="1"/>
+      <c r="C692" t="s">
+        <v>55</v>
+      </c>
+      <c r="D692">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693" s="1"/>
+      <c r="C693" t="s">
+        <v>54</v>
+      </c>
+      <c r="D693">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694" s="1"/>
+      <c r="C694" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695" s="1"/>
+      <c r="C695" t="s">
+        <v>149</v>
+      </c>
+      <c r="D695">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696" s="1"/>
+      <c r="C696" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A697" s="1"/>
+      <c r="C697" t="s">
+        <v>133</v>
+      </c>
+      <c r="D697">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698" s="1"/>
+      <c r="C698" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B699" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" t="s">
+        <v>55</v>
+      </c>
+      <c r="D699">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>115</v>
+      </c>
+      <c r="C700" t="s">
+        <v>54</v>
+      </c>
+      <c r="D700">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>118</v>
+      </c>
+      <c r="C701" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C702" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C703" t="s">
+        <v>58</v>
+      </c>
+      <c r="D703">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C704" t="s">
+        <v>59</v>
+      </c>
+      <c r="D704">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="705" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C705" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="706" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C706" t="s">
+        <v>157</v>
+      </c>
+      <c r="D706">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="707" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C707" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="708" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C708" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="709" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C709" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="710" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C710" t="s">
+        <v>156</v>
+      </c>
+      <c r="D710">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="711" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C711" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="712" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C712" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="713" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C713" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="714" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C714" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="715" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C715" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" fitToHeight="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>